--- a/results/historical/OpenStudio_BESTEST_historical.xlsx
+++ b/results/historical/OpenStudio_BESTEST_historical.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dgoldwas/Documents/GitHub/NREL/BESTEST-GSR/results/historical/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D8FC0B-827D-6946-9470-B269E813A503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BD8B7A-C018-A546-94E0-C0D0379EE155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AB Envelope" sheetId="2" r:id="rId1"/>
@@ -6974,7 +6974,27 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7377,11 +7397,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I660"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E668" sqref="E668"/>
+      <selection pane="bottomRight" activeCell="D666" sqref="D666"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7497,7 +7517,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="8">
-        <f>ABS('AB CE'!D7-'AB CE'!E7)/ABS('AB CE'!D7)</f>
+        <f t="shared" ref="C7:C70" si="1">ABS(D7-E7)/ABS(D7)</f>
         <v>0</v>
       </c>
       <c r="D7">
@@ -7516,7 +7536,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="8">
-        <f>ABS('AB CE'!D8-'AB CE'!E8)/ABS('AB CE'!D8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D8">
@@ -7535,7 +7555,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="8">
-        <f>ABS('AB CE'!D9-'AB CE'!E9)/ABS('AB CE'!D9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D9">
@@ -7554,7 +7574,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="8">
-        <f>ABS('AB CE'!D10-'AB CE'!E10)/ABS('AB CE'!D10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D10">
@@ -7573,8 +7593,8 @@
         <v>1</v>
       </c>
       <c r="C11" s="8">
-        <f>ABS('AB CE'!D11-'AB CE'!E11)/ABS('AB CE'!D11)</f>
-        <v>8.413827119898111E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>2.6861100000000002</v>
@@ -7591,9 +7611,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="C12" s="8">
-        <f>ABS('AB CE'!D12-'AB CE'!E12)/ABS('AB CE'!D12)</f>
-        <v>0</v>
+      <c r="C12" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -7611,7 +7631,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="8">
-        <f>ABS('AB CE'!D13-'AB CE'!E13)/ABS('AB CE'!D13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D13">
@@ -7630,8 +7650,8 @@
         <v>1</v>
       </c>
       <c r="C14" s="8">
-        <f>ABS('AB CE'!D14-'AB CE'!E14)/ABS('AB CE'!D14)</f>
-        <v>1.0118627594562419E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>1.50556</v>
@@ -7649,7 +7669,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="8">
-        <f>ABS('AB CE'!D15-'AB CE'!E15)/ABS('AB CE'!D15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D15">
@@ -7668,7 +7688,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="8">
-        <f>ABS('AB CE'!D16-'AB CE'!E16)/ABS('AB CE'!D16)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D16">
@@ -7687,7 +7707,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="8">
-        <f>ABS('AB CE'!D17-'AB CE'!E17)/ABS('AB CE'!D17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D17">
@@ -7705,9 +7725,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="C18" s="8">
-        <f>ABS('AB CE'!D18-'AB CE'!E18)/ABS('AB CE'!D18)</f>
-        <v>0</v>
+      <c r="C18" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -7725,7 +7745,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="8">
-        <f>ABS('AB CE'!D19-'AB CE'!E19)/ABS('AB CE'!D19)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D19">
@@ -7744,7 +7764,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="8">
-        <f>ABS('AB CE'!D20-'AB CE'!E20)/ABS('AB CE'!D20)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D20">
@@ -7763,7 +7783,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="8">
-        <f>ABS('AB CE'!D21-'AB CE'!E21)/ABS('AB CE'!D21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D21">
@@ -7782,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="8">
-        <f>ABS('AB CE'!D22-'AB CE'!E22)/ABS('AB CE'!D22)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D22">
@@ -7801,7 +7821,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="8">
-        <f>ABS('AB CE'!D23-'AB CE'!E23)/ABS('AB CE'!D23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D23">
@@ -7820,7 +7840,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="8">
-        <f>ABS('AB CE'!D24-'AB CE'!E24)/ABS('AB CE'!D24)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D24">
@@ -7839,7 +7859,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="8">
-        <f>ABS('AB CE'!D25-'AB CE'!E25)/ABS('AB CE'!D25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D25">
@@ -7858,7 +7878,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="8">
-        <f>ABS('AB CE'!D26-'AB CE'!E26)/ABS('AB CE'!D26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D26">
@@ -7877,7 +7897,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="8">
-        <f>ABS('AB CE'!D27-'AB CE'!E27)/ABS('AB CE'!D27)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D27">
@@ -7896,8 +7916,8 @@
         <v>1</v>
       </c>
       <c r="C28" s="8">
-        <f>ABS('AB CE'!D28-'AB CE'!E28)/ABS('AB CE'!D28)</f>
-        <v>6.1713378101250584E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>4.4583300000000001</v>
@@ -7915,7 +7935,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="8">
-        <f>ABS('AB CE'!D29-'AB CE'!E29)/ABS('AB CE'!D29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D29">
@@ -7934,7 +7954,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="8">
-        <f>ABS('AB CE'!D30-'AB CE'!E30)/ABS('AB CE'!D30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D30">
@@ -7953,8 +7973,8 @@
         <v>1</v>
       </c>
       <c r="C31" s="8">
-        <f>ABS('AB CE'!D31-'AB CE'!E31)/ABS('AB CE'!D31)</f>
-        <v>6.3423138613170921E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>4.5027799999999996</v>
@@ -7972,7 +7992,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="8">
-        <f>ABS('AB CE'!D32-'AB CE'!E32)/ABS('AB CE'!D32)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D32">
@@ -7991,7 +8011,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="8">
-        <f>ABS('AB CE'!D33-'AB CE'!E33)/ABS('AB CE'!D33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D33">
@@ -8010,7 +8030,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="8">
-        <f>ABS('AB CE'!D34-'AB CE'!E34)/ABS('AB CE'!D34)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D34">
@@ -8029,7 +8049,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="8">
-        <f>ABS('AB CE'!D35-'AB CE'!E35)/ABS('AB CE'!D35)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D35">
@@ -8048,7 +8068,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="8">
-        <f>ABS('AB CE'!D36-'AB CE'!E36)/ABS('AB CE'!D36)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D36">
@@ -8067,7 +8087,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="8">
-        <f>ABS('AB CE'!D37-'AB CE'!E37)/ABS('AB CE'!D37)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D37">
@@ -8086,7 +8106,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="8">
-        <f>ABS('AB CE'!D38-'AB CE'!E38)/ABS('AB CE'!D38)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D38">
@@ -8105,7 +8125,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="8">
-        <f>ABS('AB CE'!D39-'AB CE'!E39)/ABS('AB CE'!D39)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D39">
@@ -8124,7 +8144,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="8">
-        <f>ABS('AB CE'!D40-'AB CE'!E40)/ABS('AB CE'!D40)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D40">
@@ -8143,7 +8163,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="8">
-        <f>ABS('AB CE'!D41-'AB CE'!E41)/ABS('AB CE'!D41)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D41">
@@ -8162,7 +8182,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="8">
-        <f>ABS('AB CE'!D42-'AB CE'!E42)/ABS('AB CE'!D42)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D42">
@@ -8181,7 +8201,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="8">
-        <f>ABS('AB CE'!D43-'AB CE'!E43)/ABS('AB CE'!D43)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D43">
@@ -8200,7 +8220,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="8">
-        <f>ABS('AB CE'!D44-'AB CE'!E44)/ABS('AB CE'!D44)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D44">
@@ -8219,8 +8239,8 @@
         <v>1</v>
       </c>
       <c r="C45" s="8">
-        <f>ABS('AB CE'!D45-'AB CE'!E45)/ABS('AB CE'!D45)</f>
-        <v>8.2860131889180549E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>2.7833299999999999</v>
@@ -8238,7 +8258,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="8">
-        <f>ABS('AB CE'!D46-'AB CE'!E46)/ABS('AB CE'!D46)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D46">
@@ -8257,7 +8277,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="8">
-        <f>ABS('AB CE'!D47-'AB CE'!E47)/ABS('AB CE'!D47)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D47">
@@ -8276,8 +8296,8 @@
         <v>1</v>
       </c>
       <c r="C48" s="8">
-        <f>ABS('AB CE'!D48-'AB CE'!E48)/ABS('AB CE'!D48)</f>
-        <v>0.21615155994546859</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>2.51111</v>
@@ -8295,7 +8315,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="8">
-        <f>ABS('AB CE'!D49-'AB CE'!E49)/ABS('AB CE'!D49)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D49">
@@ -8314,7 +8334,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="8">
-        <f>ABS('AB CE'!D50-'AB CE'!E50)/ABS('AB CE'!D50)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D50">
@@ -8333,7 +8353,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="8">
-        <f>ABS('AB CE'!D51-'AB CE'!E51)/ABS('AB CE'!D51)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D51">
@@ -8352,7 +8372,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="8">
-        <f>ABS('AB CE'!D52-'AB CE'!E52)/ABS('AB CE'!D52)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D52">
@@ -8371,7 +8391,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="8">
-        <f>ABS('AB CE'!D53-'AB CE'!E53)/ABS('AB CE'!D53)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D53">
@@ -8390,7 +8410,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="8">
-        <f>ABS('AB CE'!D54-'AB CE'!E54)/ABS('AB CE'!D54)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D54">
@@ -8409,7 +8429,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="8">
-        <f>ABS('AB CE'!D55-'AB CE'!E55)/ABS('AB CE'!D55)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D55">
@@ -8428,7 +8448,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="8">
-        <f>ABS('AB CE'!D56-'AB CE'!E56)/ABS('AB CE'!D56)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D56">
@@ -8447,7 +8467,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="8">
-        <f>ABS('AB CE'!D57-'AB CE'!E57)/ABS('AB CE'!D57)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D57">
@@ -8466,7 +8486,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="8">
-        <f>ABS('AB CE'!D58-'AB CE'!E58)/ABS('AB CE'!D58)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D58">
@@ -8485,7 +8505,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="8">
-        <f>ABS('AB CE'!D59-'AB CE'!E59)/ABS('AB CE'!D59)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D59">
@@ -8504,7 +8524,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="8">
-        <f>ABS('AB CE'!D60-'AB CE'!E60)/ABS('AB CE'!D60)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D60">
@@ -8523,7 +8543,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="8">
-        <f>ABS('AB CE'!D61-'AB CE'!E61)/ABS('AB CE'!D61)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D61">
@@ -8542,8 +8562,8 @@
         <v>1</v>
       </c>
       <c r="C62" s="8">
-        <f>ABS('AB CE'!D62-'AB CE'!E62)/ABS('AB CE'!D62)</f>
-        <v>3.9735922330097075E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>3.1749999999999998</v>
@@ -8561,7 +8581,7 @@
         <v>1</v>
       </c>
       <c r="C63" s="8">
-        <f>ABS('AB CE'!D63-'AB CE'!E63)/ABS('AB CE'!D63)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D63">
@@ -8580,7 +8600,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="8">
-        <f>ABS('AB CE'!D64-'AB CE'!E64)/ABS('AB CE'!D64)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D64">
@@ -8599,8 +8619,8 @@
         <v>1</v>
       </c>
       <c r="C65" s="8">
-        <f>ABS('AB CE'!D65-'AB CE'!E65)/ABS('AB CE'!D65)</f>
-        <v>4.3325285717817158E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D65">
         <v>6.3972199999999999</v>
@@ -8618,7 +8638,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="8">
-        <f>ABS('AB CE'!D66-'AB CE'!E66)/ABS('AB CE'!D66)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D66">
@@ -8637,7 +8657,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="8">
-        <f>ABS('AB CE'!D67-'AB CE'!E67)/ABS('AB CE'!D67)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D67">
@@ -8656,7 +8676,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="8">
-        <f>ABS('AB CE'!D68-'AB CE'!E68)/ABS('AB CE'!D68)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D68">
@@ -8674,9 +8694,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="C69" s="8">
-        <f>ABS('AB CE'!D69-'AB CE'!E69)/ABS('AB CE'!D69)</f>
-        <v>0</v>
+      <c r="C69" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -8694,7 +8714,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="8">
-        <f>ABS('AB CE'!D70-'AB CE'!E70)/ABS('AB CE'!D70)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D70">
@@ -8709,11 +8729,11 @@
         <v>648</v>
       </c>
       <c r="B71" t="b">
-        <f t="shared" ref="B71:B134" ca="1" si="1">IF(CELL("format",D71)="G",IF(ABS(D71-E71) &lt;= ABS(D71*H$3),TRUE,FALSE),IF(D71=E71,TRUE,FALSE))</f>
+        <f t="shared" ref="B71:B134" ca="1" si="2">IF(CELL("format",D71)="G",IF(ABS(D71-E71) &lt;= ABS(D71*H$3),TRUE,FALSE),IF(D71=E71,TRUE,FALSE))</f>
         <v>1</v>
       </c>
       <c r="C71" s="8">
-        <f>ABS('AB CE'!D71-'AB CE'!E71)/ABS('AB CE'!D71)</f>
+        <f t="shared" ref="C71:C134" si="3">ABS(D71-E71)/ABS(D71)</f>
         <v>0</v>
       </c>
       <c r="D71">
@@ -8728,11 +8748,11 @@
         <v>647</v>
       </c>
       <c r="B72" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C72" s="8">
-        <f>ABS('AB CE'!D72-'AB CE'!E72)/ABS('AB CE'!D72)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D72">
@@ -8747,11 +8767,11 @@
         <v>646</v>
       </c>
       <c r="B73" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C73" s="8">
-        <f>ABS('AB CE'!D73-'AB CE'!E73)/ABS('AB CE'!D73)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D73">
@@ -8766,11 +8786,11 @@
         <v>645</v>
       </c>
       <c r="B74" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C74" s="8">
-        <f>ABS('AB CE'!D74-'AB CE'!E74)/ABS('AB CE'!D74)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D74">
@@ -8785,11 +8805,11 @@
         <v>644</v>
       </c>
       <c r="B75" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C75" s="8">
-        <f>ABS('AB CE'!D75-'AB CE'!E75)/ABS('AB CE'!D75)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D75">
@@ -8804,11 +8824,11 @@
         <v>643</v>
       </c>
       <c r="B76" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C76" s="8">
-        <f>ABS('AB CE'!D76-'AB CE'!E76)/ABS('AB CE'!D76)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D76">
@@ -8823,11 +8843,11 @@
         <v>642</v>
       </c>
       <c r="B77" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C77" s="8">
-        <f>ABS('AB CE'!D77-'AB CE'!E77)/ABS('AB CE'!D77)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D77">
@@ -8842,11 +8862,11 @@
         <v>641</v>
       </c>
       <c r="B78" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C78" s="8">
-        <f>ABS('AB CE'!D78-'AB CE'!E78)/ABS('AB CE'!D78)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D78" s="4">
@@ -8861,12 +8881,12 @@
         <v>640</v>
       </c>
       <c r="B79" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C79" s="8">
-        <f>ABS('AB CE'!D79-'AB CE'!E79)/ABS('AB CE'!D79)</f>
-        <v>1.3445739601703283E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="D79">
         <v>5</v>
@@ -8880,11 +8900,11 @@
         <v>639</v>
       </c>
       <c r="B80" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C80" s="8">
-        <f>ABS('AB CE'!D80-'AB CE'!E80)/ABS('AB CE'!D80)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D80">
@@ -8899,11 +8919,11 @@
         <v>638</v>
       </c>
       <c r="B81" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C81" s="8">
-        <f>ABS('AB CE'!D81-'AB CE'!E81)/ABS('AB CE'!D81)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D81" s="4">
@@ -8918,12 +8938,12 @@
         <v>637</v>
       </c>
       <c r="B82" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C82" s="8">
-        <f>ABS('AB CE'!D82-'AB CE'!E82)/ABS('AB CE'!D82)</f>
-        <v>5.4331708617537965E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>5</v>
@@ -8937,11 +8957,11 @@
         <v>636</v>
       </c>
       <c r="B83" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C83" s="8">
-        <f>ABS('AB CE'!D83-'AB CE'!E83)/ABS('AB CE'!D83)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D83">
@@ -8956,11 +8976,11 @@
         <v>635</v>
       </c>
       <c r="B84" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C84" s="8">
-        <f>ABS('AB CE'!D84-'AB CE'!E84)/ABS('AB CE'!D84)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D84" s="4">
@@ -8975,11 +8995,11 @@
         <v>634</v>
       </c>
       <c r="B85" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C85" s="8">
-        <f>ABS('AB CE'!D85-'AB CE'!E85)/ABS('AB CE'!D85)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D85">
@@ -8994,11 +9014,11 @@
         <v>633</v>
       </c>
       <c r="B86" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C86" s="8">
-        <f>ABS('AB CE'!D86-'AB CE'!E86)/ABS('AB CE'!D86)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D86">
@@ -9013,11 +9033,11 @@
         <v>632</v>
       </c>
       <c r="B87" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C87" s="8">
-        <f>ABS('AB CE'!D87-'AB CE'!E87)/ABS('AB CE'!D87)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D87" s="4">
@@ -9032,11 +9052,11 @@
         <v>631</v>
       </c>
       <c r="B88" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C88" s="8">
-        <f>ABS('AB CE'!D88-'AB CE'!E88)/ABS('AB CE'!D88)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D88">
@@ -9051,11 +9071,11 @@
         <v>630</v>
       </c>
       <c r="B89" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C89" s="8">
-        <f>ABS('AB CE'!D89-'AB CE'!E89)/ABS('AB CE'!D89)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D89">
@@ -9070,11 +9090,11 @@
         <v>629</v>
       </c>
       <c r="B90" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C90" s="8">
-        <f>ABS('AB CE'!D90-'AB CE'!E90)/ABS('AB CE'!D90)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D90" s="4">
@@ -9089,11 +9109,11 @@
         <v>628</v>
       </c>
       <c r="B91" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C91" s="8">
-        <f>ABS('AB CE'!D91-'AB CE'!E91)/ABS('AB CE'!D91)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D91">
@@ -9108,12 +9128,12 @@
         <v>627</v>
       </c>
       <c r="B92" t="b">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C92" s="8">
-        <f>ABS('AB CE'!D92-'AB CE'!E92)/ABS('AB CE'!D92)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C92" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -9127,11 +9147,11 @@
         <v>626</v>
       </c>
       <c r="B93" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C93" s="8">
-        <f>ABS('AB CE'!D93-'AB CE'!E93)/ABS('AB CE'!D93)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D93" s="4">
@@ -9146,12 +9166,12 @@
         <v>625</v>
       </c>
       <c r="B94" t="b">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C94" s="8">
-        <f>ABS('AB CE'!D94-'AB CE'!E94)/ABS('AB CE'!D94)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C94" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -9165,11 +9185,11 @@
         <v>624</v>
       </c>
       <c r="B95" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C95" s="8">
-        <f>ABS('AB CE'!D95-'AB CE'!E95)/ABS('AB CE'!D95)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D95">
@@ -9184,11 +9204,11 @@
         <v>623</v>
       </c>
       <c r="B96" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C96" s="8">
-        <f>ABS('AB CE'!D96-'AB CE'!E96)/ABS('AB CE'!D96)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D96" s="4">
@@ -9203,11 +9223,11 @@
         <v>622</v>
       </c>
       <c r="B97" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C97" s="8">
-        <f>ABS('AB CE'!D97-'AB CE'!E97)/ABS('AB CE'!D97)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D97">
@@ -9222,11 +9242,11 @@
         <v>621</v>
       </c>
       <c r="B98" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C98" s="8">
-        <f>ABS('AB CE'!D98-'AB CE'!E98)/ABS('AB CE'!D98)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D98">
@@ -9241,11 +9261,11 @@
         <v>620</v>
       </c>
       <c r="B99" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C99" s="8">
-        <f>ABS('AB CE'!D99-'AB CE'!E99)/ABS('AB CE'!D99)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D99" s="4">
@@ -9260,11 +9280,11 @@
         <v>619</v>
       </c>
       <c r="B100" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C100" s="8">
-        <f>ABS('AB CE'!D100-'AB CE'!E100)/ABS('AB CE'!D100)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D100">
@@ -9279,11 +9299,11 @@
         <v>618</v>
       </c>
       <c r="B101" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C101" s="8">
-        <f>ABS('AB CE'!D101-'AB CE'!E101)/ABS('AB CE'!D101)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D101">
@@ -9298,11 +9318,11 @@
         <v>617</v>
       </c>
       <c r="B102" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C102" s="8">
-        <f>ABS('AB CE'!D102-'AB CE'!E102)/ABS('AB CE'!D102)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D102" s="4">
@@ -9317,11 +9337,11 @@
         <v>616</v>
       </c>
       <c r="B103" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C103" s="8">
-        <f>ABS('AB CE'!D103-'AB CE'!E103)/ABS('AB CE'!D103)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D103">
@@ -9336,11 +9356,11 @@
         <v>615</v>
       </c>
       <c r="B104" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C104" s="8">
-        <f>ABS('AB CE'!D104-'AB CE'!E104)/ABS('AB CE'!D104)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D104">
@@ -9355,11 +9375,11 @@
         <v>614</v>
       </c>
       <c r="B105" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C105" s="8">
-        <f>ABS('AB CE'!D105-'AB CE'!E105)/ABS('AB CE'!D105)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D105" s="4">
@@ -9374,11 +9394,11 @@
         <v>613</v>
       </c>
       <c r="B106" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C106" s="8">
-        <f>ABS('AB CE'!D106-'AB CE'!E106)/ABS('AB CE'!D106)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D106">
@@ -9393,11 +9413,11 @@
         <v>612</v>
       </c>
       <c r="B107" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C107" s="8">
-        <f>ABS('AB CE'!D107-'AB CE'!E107)/ABS('AB CE'!D107)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D107">
@@ -9412,11 +9432,11 @@
         <v>611</v>
       </c>
       <c r="B108" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C108" s="8">
-        <f>ABS('AB CE'!D108-'AB CE'!E108)/ABS('AB CE'!D108)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D108" s="4">
@@ -9431,11 +9451,11 @@
         <v>610</v>
       </c>
       <c r="B109" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C109" s="8">
-        <f>ABS('AB CE'!D109-'AB CE'!E109)/ABS('AB CE'!D109)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D109">
@@ -9450,12 +9470,12 @@
         <v>609</v>
       </c>
       <c r="B110" t="b">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C110" s="8">
-        <f>ABS('AB CE'!D110-'AB CE'!E110)/ABS('AB CE'!D110)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C110" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -9469,11 +9489,11 @@
         <v>608</v>
       </c>
       <c r="B111" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C111" s="8">
-        <f>ABS('AB CE'!D111-'AB CE'!E111)/ABS('AB CE'!D111)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D111" s="4">
@@ -9488,12 +9508,12 @@
         <v>607</v>
       </c>
       <c r="B112" t="b">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C112" s="8">
-        <f>ABS('AB CE'!D112-'AB CE'!E112)/ABS('AB CE'!D112)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C112" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -9507,11 +9527,11 @@
         <v>606</v>
       </c>
       <c r="B113" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C113" s="8">
-        <f>ABS('AB CE'!D113-'AB CE'!E113)/ABS('AB CE'!D113)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D113">
@@ -9526,11 +9546,11 @@
         <v>605</v>
       </c>
       <c r="B114" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C114" s="8">
-        <f>ABS('AB CE'!D114-'AB CE'!E114)/ABS('AB CE'!D114)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D114" s="4">
@@ -9545,11 +9565,11 @@
         <v>604</v>
       </c>
       <c r="B115" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C115" s="8">
-        <f>ABS('AB CE'!D115-'AB CE'!E115)/ABS('AB CE'!D115)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D115">
@@ -9564,11 +9584,11 @@
         <v>603</v>
       </c>
       <c r="B116" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C116" s="8">
-        <f>ABS('AB CE'!D116-'AB CE'!E116)/ABS('AB CE'!D116)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D116">
@@ -9583,11 +9603,11 @@
         <v>602</v>
       </c>
       <c r="B117" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C117" s="8">
-        <f>ABS('AB CE'!D117-'AB CE'!E117)/ABS('AB CE'!D117)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D117" s="4">
@@ -9602,11 +9622,11 @@
         <v>601</v>
       </c>
       <c r="B118" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C118" s="8">
-        <f>ABS('AB CE'!D118-'AB CE'!E118)/ABS('AB CE'!D118)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D118">
@@ -9621,11 +9641,11 @@
         <v>600</v>
       </c>
       <c r="B119" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C119" s="8">
-        <f>ABS('AB CE'!D119-'AB CE'!E119)/ABS('AB CE'!D119)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D119">
@@ -9640,11 +9660,11 @@
         <v>599</v>
       </c>
       <c r="B120" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C120" s="8">
-        <f>ABS('AB CE'!D120-'AB CE'!E120)/ABS('AB CE'!D120)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D120" s="4">
@@ -9659,11 +9679,11 @@
         <v>598</v>
       </c>
       <c r="B121" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C121" s="8">
-        <f>ABS('AB CE'!D121-'AB CE'!E121)/ABS('AB CE'!D121)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D121">
@@ -9678,11 +9698,11 @@
         <v>597</v>
       </c>
       <c r="B122" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C122" s="8">
-        <f>ABS('AB CE'!D122-'AB CE'!E122)/ABS('AB CE'!D122)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D122">
@@ -9697,11 +9717,11 @@
         <v>596</v>
       </c>
       <c r="B123" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C123" s="8">
-        <f>ABS('AB CE'!D123-'AB CE'!E123)/ABS('AB CE'!D123)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D123" s="4">
@@ -9716,11 +9736,11 @@
         <v>595</v>
       </c>
       <c r="B124" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C124" s="8">
-        <f>ABS('AB CE'!D124-'AB CE'!E124)/ABS('AB CE'!D124)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D124">
@@ -9735,11 +9755,11 @@
         <v>594</v>
       </c>
       <c r="B125" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C125" s="8">
-        <f t="shared" ref="C125:C188" si="2">ABS(D125-E125)/ABS(D125)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D125">
@@ -9754,11 +9774,11 @@
         <v>593</v>
       </c>
       <c r="B126" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C126" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D126" s="4">
@@ -9773,11 +9793,11 @@
         <v>592</v>
       </c>
       <c r="B127" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C127" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D127">
@@ -9792,11 +9812,11 @@
         <v>591</v>
       </c>
       <c r="B128" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C128" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D128">
@@ -9811,11 +9831,11 @@
         <v>590</v>
       </c>
       <c r="B129" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C129" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D129" s="4">
@@ -9830,11 +9850,11 @@
         <v>589</v>
       </c>
       <c r="B130" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C130" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D130">
@@ -9849,11 +9869,11 @@
         <v>588</v>
       </c>
       <c r="B131" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C131" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D131">
@@ -9868,11 +9888,11 @@
         <v>587</v>
       </c>
       <c r="B132" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C132" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D132" s="4">
@@ -9887,11 +9907,11 @@
         <v>586</v>
       </c>
       <c r="B133" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C133" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D133">
@@ -9906,11 +9926,11 @@
         <v>585</v>
       </c>
       <c r="B134" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C134" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D134">
@@ -9925,11 +9945,11 @@
         <v>584</v>
       </c>
       <c r="B135" t="b">
-        <f t="shared" ref="B135:B198" ca="1" si="3">IF(CELL("format",D135)="G",IF(ABS(D135-E135) &lt;= ABS(D135*H$3),TRUE,FALSE),IF(D135=E135,TRUE,FALSE))</f>
+        <f t="shared" ref="B135:B198" ca="1" si="4">IF(CELL("format",D135)="G",IF(ABS(D135-E135) &lt;= ABS(D135*H$3),TRUE,FALSE),IF(D135=E135,TRUE,FALSE))</f>
         <v>1</v>
       </c>
       <c r="C135" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C135:C198" si="5">ABS(D135-E135)/ABS(D135)</f>
         <v>0</v>
       </c>
       <c r="D135" s="4">
@@ -9944,11 +9964,11 @@
         <v>583</v>
       </c>
       <c r="B136" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C136" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D136">
@@ -9963,11 +9983,11 @@
         <v>582</v>
       </c>
       <c r="B137" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C137" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D137">
@@ -9982,11 +10002,11 @@
         <v>581</v>
       </c>
       <c r="B138" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C138" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D138" s="4">
@@ -10001,11 +10021,11 @@
         <v>580</v>
       </c>
       <c r="B139" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C139" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D139">
@@ -10020,11 +10040,11 @@
         <v>579</v>
       </c>
       <c r="B140" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C140" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D140">
@@ -10039,11 +10059,11 @@
         <v>578</v>
       </c>
       <c r="B141" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C141" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D141" s="4">
@@ -10058,11 +10078,11 @@
         <v>577</v>
       </c>
       <c r="B142" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C142" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D142">
@@ -10077,11 +10097,11 @@
         <v>576</v>
       </c>
       <c r="B143" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C143" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D143">
@@ -10096,11 +10116,11 @@
         <v>575</v>
       </c>
       <c r="B144" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C144" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D144" s="4">
@@ -10115,11 +10135,11 @@
         <v>574</v>
       </c>
       <c r="B145" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C145" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D145">
@@ -10134,11 +10154,11 @@
         <v>573</v>
       </c>
       <c r="B146" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C146" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D146">
@@ -10153,11 +10173,11 @@
         <v>572</v>
       </c>
       <c r="B147" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C147" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D147" s="4">
@@ -10172,11 +10192,11 @@
         <v>571</v>
       </c>
       <c r="B148" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C148" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D148">
@@ -10191,11 +10211,11 @@
         <v>570</v>
       </c>
       <c r="B149" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C149" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D149">
@@ -10210,11 +10230,11 @@
         <v>569</v>
       </c>
       <c r="B150" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C150" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D150" s="4">
@@ -10229,11 +10249,11 @@
         <v>568</v>
       </c>
       <c r="B151" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C151" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D151">
@@ -10248,11 +10268,11 @@
         <v>567</v>
       </c>
       <c r="B152" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C152" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D152">
@@ -10267,11 +10287,11 @@
         <v>566</v>
       </c>
       <c r="B153" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C153" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D153" s="4">
@@ -10286,11 +10306,11 @@
         <v>565</v>
       </c>
       <c r="B154" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C154" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D154">
@@ -10305,11 +10325,11 @@
         <v>564</v>
       </c>
       <c r="B155" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C155" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D155">
@@ -10324,11 +10344,11 @@
         <v>563</v>
       </c>
       <c r="B156" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C156" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D156" s="4">
@@ -10343,11 +10363,11 @@
         <v>562</v>
       </c>
       <c r="B157" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C157" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D157">
@@ -10362,11 +10382,11 @@
         <v>561</v>
       </c>
       <c r="B158" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C158" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D158">
@@ -10381,11 +10401,11 @@
         <v>560</v>
       </c>
       <c r="B159" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C159" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D159" s="4">
@@ -10400,11 +10420,11 @@
         <v>559</v>
       </c>
       <c r="B160" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C160" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D160">
@@ -10419,11 +10439,11 @@
         <v>558</v>
       </c>
       <c r="B161" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C161" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D161">
@@ -10438,11 +10458,11 @@
         <v>557</v>
       </c>
       <c r="B162" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C162" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D162" s="4">
@@ -10457,11 +10477,11 @@
         <v>556</v>
       </c>
       <c r="B163" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C163" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D163">
@@ -10476,11 +10496,11 @@
         <v>555</v>
       </c>
       <c r="B164" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C164" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D164">
@@ -10495,11 +10515,11 @@
         <v>554</v>
       </c>
       <c r="B165" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C165" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D165" s="4">
@@ -10514,11 +10534,11 @@
         <v>553</v>
       </c>
       <c r="B166" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C166" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D166">
@@ -10533,11 +10553,11 @@
         <v>552</v>
       </c>
       <c r="B167" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C167" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D167">
@@ -10552,11 +10572,11 @@
         <v>551</v>
       </c>
       <c r="B168" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C168" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D168" s="4">
@@ -10571,11 +10591,11 @@
         <v>550</v>
       </c>
       <c r="B169" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C169" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D169">
@@ -10590,11 +10610,11 @@
         <v>549</v>
       </c>
       <c r="B170" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C170" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D170">
@@ -10609,11 +10629,11 @@
         <v>548</v>
       </c>
       <c r="B171" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C171" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D171" s="4">
@@ -10628,11 +10648,11 @@
         <v>547</v>
       </c>
       <c r="B172" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C172" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D172">
@@ -10647,11 +10667,11 @@
         <v>546</v>
       </c>
       <c r="B173" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C173" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D173">
@@ -10666,11 +10686,11 @@
         <v>545</v>
       </c>
       <c r="B174" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C174" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D174" s="4">
@@ -10685,11 +10705,11 @@
         <v>544</v>
       </c>
       <c r="B175" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C175" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D175">
@@ -10704,11 +10724,11 @@
         <v>543</v>
       </c>
       <c r="B176" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C176" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D176">
@@ -10723,11 +10743,11 @@
         <v>542</v>
       </c>
       <c r="B177" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C177" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D177" s="4">
@@ -10742,11 +10762,11 @@
         <v>541</v>
       </c>
       <c r="B178" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C178" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D178">
@@ -10761,11 +10781,11 @@
         <v>540</v>
       </c>
       <c r="B179" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C179" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D179">
@@ -10780,11 +10800,11 @@
         <v>539</v>
       </c>
       <c r="B180" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C180" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D180" s="4">
@@ -10799,11 +10819,11 @@
         <v>538</v>
       </c>
       <c r="B181" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C181" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D181">
@@ -10818,11 +10838,11 @@
         <v>537</v>
       </c>
       <c r="B182" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C182" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D182">
@@ -10837,11 +10857,11 @@
         <v>536</v>
       </c>
       <c r="B183" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C183" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D183" s="4">
@@ -10856,11 +10876,11 @@
         <v>535</v>
       </c>
       <c r="B184" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C184" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D184">
@@ -10875,11 +10895,11 @@
         <v>534</v>
       </c>
       <c r="B185" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C185" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D185">
@@ -10894,11 +10914,11 @@
         <v>533</v>
       </c>
       <c r="B186" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C186" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D186" s="4">
@@ -10913,11 +10933,11 @@
         <v>532</v>
       </c>
       <c r="B187" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C187" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D187">
@@ -10932,11 +10952,11 @@
         <v>531</v>
       </c>
       <c r="B188" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C188" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D188">
@@ -10951,11 +10971,11 @@
         <v>530</v>
       </c>
       <c r="B189" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C189" s="8">
-        <f t="shared" ref="C189:C252" si="4">ABS(D189-E189)/ABS(D189)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D189" s="4">
@@ -10970,11 +10990,11 @@
         <v>529</v>
       </c>
       <c r="B190" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C190" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D190">
@@ -10989,11 +11009,11 @@
         <v>528</v>
       </c>
       <c r="B191" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C191" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D191">
@@ -11008,11 +11028,11 @@
         <v>527</v>
       </c>
       <c r="B192" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C192" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D192" s="4">
@@ -11027,11 +11047,11 @@
         <v>526</v>
       </c>
       <c r="B193" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C193" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D193">
@@ -11046,11 +11066,11 @@
         <v>525</v>
       </c>
       <c r="B194" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C194" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D194">
@@ -11065,11 +11085,11 @@
         <v>524</v>
       </c>
       <c r="B195" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C195" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D195" s="4">
@@ -11084,11 +11104,11 @@
         <v>523</v>
       </c>
       <c r="B196" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C196" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D196">
@@ -11103,11 +11123,11 @@
         <v>522</v>
       </c>
       <c r="B197" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C197" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D197">
@@ -11122,11 +11142,11 @@
         <v>521</v>
       </c>
       <c r="B198" t="b">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="C198" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D198" s="4">
@@ -11141,11 +11161,11 @@
         <v>520</v>
       </c>
       <c r="B199" t="b">
-        <f t="shared" ref="B199:B262" ca="1" si="5">IF(CELL("format",D199)="G",IF(ABS(D199-E199) &lt;= ABS(D199*H$3),TRUE,FALSE),IF(D199=E199,TRUE,FALSE))</f>
+        <f t="shared" ref="B199:B262" ca="1" si="6">IF(CELL("format",D199)="G",IF(ABS(D199-E199) &lt;= ABS(D199*H$3),TRUE,FALSE),IF(D199=E199,TRUE,FALSE))</f>
         <v>1</v>
       </c>
       <c r="C199" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="C199:C262" si="7">ABS(D199-E199)/ABS(D199)</f>
         <v>0</v>
       </c>
       <c r="D199">
@@ -11160,11 +11180,11 @@
         <v>519</v>
       </c>
       <c r="B200" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C200" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D200">
@@ -11179,11 +11199,11 @@
         <v>518</v>
       </c>
       <c r="B201" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C201" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D201" s="4">
@@ -11198,11 +11218,11 @@
         <v>517</v>
       </c>
       <c r="B202" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C202" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D202">
@@ -11217,11 +11237,11 @@
         <v>516</v>
       </c>
       <c r="B203" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C203" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D203">
@@ -11236,11 +11256,11 @@
         <v>515</v>
       </c>
       <c r="B204" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C204" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D204" s="4">
@@ -11255,11 +11275,11 @@
         <v>514</v>
       </c>
       <c r="B205" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C205" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D205">
@@ -11274,11 +11294,11 @@
         <v>513</v>
       </c>
       <c r="B206" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C206" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D206">
@@ -11293,11 +11313,11 @@
         <v>512</v>
       </c>
       <c r="B207" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C207" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D207" s="4">
@@ -11312,11 +11332,11 @@
         <v>511</v>
       </c>
       <c r="B208" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C208" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D208">
@@ -11331,11 +11351,11 @@
         <v>510</v>
       </c>
       <c r="B209" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C209" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D209">
@@ -11350,11 +11370,11 @@
         <v>509</v>
       </c>
       <c r="B210" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C210" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D210" s="4">
@@ -11369,11 +11389,11 @@
         <v>508</v>
       </c>
       <c r="B211" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C211" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D211">
@@ -11388,11 +11408,11 @@
         <v>507</v>
       </c>
       <c r="B212" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C212" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D212">
@@ -11407,11 +11427,11 @@
         <v>506</v>
       </c>
       <c r="B213" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C213" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D213" s="4">
@@ -11426,11 +11446,11 @@
         <v>505</v>
       </c>
       <c r="B214" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C214" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D214">
@@ -11445,11 +11465,11 @@
         <v>504</v>
       </c>
       <c r="B215" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C215" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D215">
@@ -11464,11 +11484,11 @@
         <v>503</v>
       </c>
       <c r="B216" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C216" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D216" s="4">
@@ -11483,11 +11503,11 @@
         <v>502</v>
       </c>
       <c r="B217" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C217" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D217">
@@ -11502,11 +11522,11 @@
         <v>501</v>
       </c>
       <c r="B218" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C218" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D218">
@@ -11521,11 +11541,11 @@
         <v>500</v>
       </c>
       <c r="B219" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C219" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D219" s="4">
@@ -11540,11 +11560,11 @@
         <v>499</v>
       </c>
       <c r="B220" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C220" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D220">
@@ -11559,11 +11579,11 @@
         <v>498</v>
       </c>
       <c r="B221" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C221" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D221">
@@ -11578,11 +11598,11 @@
         <v>497</v>
       </c>
       <c r="B222" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C222" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D222" s="4">
@@ -11597,11 +11617,11 @@
         <v>496</v>
       </c>
       <c r="B223" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C223" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D223">
@@ -11616,11 +11636,11 @@
         <v>495</v>
       </c>
       <c r="B224" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C224" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D224">
@@ -11635,11 +11655,11 @@
         <v>494</v>
       </c>
       <c r="B225" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C225" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D225" s="4">
@@ -11654,11 +11674,11 @@
         <v>493</v>
       </c>
       <c r="B226" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C226" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D226">
@@ -11673,11 +11693,11 @@
         <v>492</v>
       </c>
       <c r="B227" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C227" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D227">
@@ -11692,11 +11712,11 @@
         <v>491</v>
       </c>
       <c r="B228" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C228" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D228" s="4">
@@ -11711,11 +11731,11 @@
         <v>490</v>
       </c>
       <c r="B229" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C229" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D229">
@@ -11730,11 +11750,11 @@
         <v>489</v>
       </c>
       <c r="B230" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C230" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D230">
@@ -11749,11 +11769,11 @@
         <v>488</v>
       </c>
       <c r="B231" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C231" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D231" s="4">
@@ -11768,11 +11788,11 @@
         <v>487</v>
       </c>
       <c r="B232" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C232" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D232">
@@ -11787,11 +11807,11 @@
         <v>486</v>
       </c>
       <c r="B233" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C233" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D233">
@@ -11806,11 +11826,11 @@
         <v>485</v>
       </c>
       <c r="B234" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C234" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D234" s="4">
@@ -11825,11 +11845,11 @@
         <v>484</v>
       </c>
       <c r="B235" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C235" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D235">
@@ -11844,11 +11864,11 @@
         <v>483</v>
       </c>
       <c r="B236" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C236" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D236">
@@ -11863,11 +11883,11 @@
         <v>482</v>
       </c>
       <c r="B237" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C237" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D237" s="4">
@@ -11882,11 +11902,11 @@
         <v>481</v>
       </c>
       <c r="B238" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C238" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D238">
@@ -11901,11 +11921,11 @@
         <v>480</v>
       </c>
       <c r="B239" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C239" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D239">
@@ -11920,11 +11940,11 @@
         <v>479</v>
       </c>
       <c r="B240" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C240" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D240" s="4">
@@ -11939,11 +11959,11 @@
         <v>478</v>
       </c>
       <c r="B241" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C241" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D241">
@@ -11958,11 +11978,11 @@
         <v>477</v>
       </c>
       <c r="B242" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C242" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D242">
@@ -11977,11 +11997,11 @@
         <v>476</v>
       </c>
       <c r="B243" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C243" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D243" s="4">
@@ -11996,11 +12016,11 @@
         <v>475</v>
       </c>
       <c r="B244" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C244" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D244">
@@ -12015,11 +12035,11 @@
         <v>474</v>
       </c>
       <c r="B245" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C245" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D245">
@@ -12034,11 +12054,11 @@
         <v>473</v>
       </c>
       <c r="B246" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C246" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D246" s="4">
@@ -12053,11 +12073,11 @@
         <v>472</v>
       </c>
       <c r="B247" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C247" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D247">
@@ -12072,11 +12092,11 @@
         <v>471</v>
       </c>
       <c r="B248" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C248" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D248">
@@ -12091,11 +12111,11 @@
         <v>470</v>
       </c>
       <c r="B249" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C249" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D249" s="4">
@@ -12110,11 +12130,11 @@
         <v>469</v>
       </c>
       <c r="B250" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C250" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D250">
@@ -12129,11 +12149,11 @@
         <v>468</v>
       </c>
       <c r="B251" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C251" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D251">
@@ -12148,11 +12168,11 @@
         <v>467</v>
       </c>
       <c r="B252" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C252" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D252" s="4">
@@ -12167,11 +12187,11 @@
         <v>466</v>
       </c>
       <c r="B253" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C253" s="8">
-        <f t="shared" ref="C253:C316" si="6">ABS(D253-E253)/ABS(D253)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D253">
@@ -12186,11 +12206,11 @@
         <v>465</v>
       </c>
       <c r="B254" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C254" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D254">
@@ -12205,11 +12225,11 @@
         <v>464</v>
       </c>
       <c r="B255" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C255" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D255" s="4">
@@ -12224,11 +12244,11 @@
         <v>463</v>
       </c>
       <c r="B256" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C256" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D256">
@@ -12243,11 +12263,11 @@
         <v>462</v>
       </c>
       <c r="B257" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C257" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D257">
@@ -12262,11 +12282,11 @@
         <v>461</v>
       </c>
       <c r="B258" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C258" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D258" s="4">
@@ -12281,11 +12301,11 @@
         <v>460</v>
       </c>
       <c r="B259" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C259" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D259">
@@ -12300,11 +12320,11 @@
         <v>459</v>
       </c>
       <c r="B260" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C260" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D260">
@@ -12319,11 +12339,11 @@
         <v>458</v>
       </c>
       <c r="B261" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C261" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D261" s="4">
@@ -12338,11 +12358,11 @@
         <v>457</v>
       </c>
       <c r="B262" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="C262" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D262">
@@ -12357,11 +12377,11 @@
         <v>456</v>
       </c>
       <c r="B263" t="b">
-        <f t="shared" ref="B263:B301" ca="1" si="7">IF(CELL("format",D263)="G",IF(ABS(D263-E263) &lt;= ABS(D263*H$3),TRUE,FALSE),IF(D263=E263,TRUE,FALSE))</f>
+        <f t="shared" ref="B263:B301" ca="1" si="8">IF(CELL("format",D263)="G",IF(ABS(D263-E263) &lt;= ABS(D263*H$3),TRUE,FALSE),IF(D263=E263,TRUE,FALSE))</f>
         <v>1</v>
       </c>
       <c r="C263" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="C263:C326" si="9">ABS(D263-E263)/ABS(D263)</f>
         <v>0</v>
       </c>
       <c r="D263">
@@ -12376,11 +12396,11 @@
         <v>455</v>
       </c>
       <c r="B264" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C264" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D264" s="4">
@@ -12395,11 +12415,11 @@
         <v>454</v>
       </c>
       <c r="B265" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C265" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D265">
@@ -12414,11 +12434,11 @@
         <v>453</v>
       </c>
       <c r="B266" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C266" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D266">
@@ -12433,11 +12453,11 @@
         <v>452</v>
       </c>
       <c r="B267" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C267" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D267" s="4">
@@ -12452,11 +12472,11 @@
         <v>451</v>
       </c>
       <c r="B268" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C268" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D268">
@@ -12471,11 +12491,11 @@
         <v>450</v>
       </c>
       <c r="B269" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C269" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D269">
@@ -12490,11 +12510,11 @@
         <v>449</v>
       </c>
       <c r="B270" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C270" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D270" s="4">
@@ -12509,11 +12529,11 @@
         <v>448</v>
       </c>
       <c r="B271" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C271" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D271">
@@ -12528,11 +12548,11 @@
         <v>447</v>
       </c>
       <c r="B272" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C272" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D272">
@@ -12547,11 +12567,11 @@
         <v>446</v>
       </c>
       <c r="B273" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C273" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D273" s="4">
@@ -12566,11 +12586,11 @@
         <v>445</v>
       </c>
       <c r="B274" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C274" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D274">
@@ -12585,11 +12605,11 @@
         <v>444</v>
       </c>
       <c r="B275" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C275" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D275">
@@ -12604,11 +12624,11 @@
         <v>443</v>
       </c>
       <c r="B276" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C276" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D276" s="4">
@@ -12623,11 +12643,11 @@
         <v>442</v>
       </c>
       <c r="B277" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C277" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D277">
@@ -12642,11 +12662,11 @@
         <v>441</v>
       </c>
       <c r="B278" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C278" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D278">
@@ -12661,11 +12681,11 @@
         <v>440</v>
       </c>
       <c r="B279" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C279" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D279" s="4">
@@ -12680,11 +12700,11 @@
         <v>439</v>
       </c>
       <c r="B280" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C280" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D280">
@@ -12699,11 +12719,11 @@
         <v>438</v>
       </c>
       <c r="B281" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C281" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D281">
@@ -12718,11 +12738,11 @@
         <v>437</v>
       </c>
       <c r="B282" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C282" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D282" s="4">
@@ -12737,11 +12757,11 @@
         <v>436</v>
       </c>
       <c r="B283" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C283" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D283">
@@ -12756,11 +12776,11 @@
         <v>435</v>
       </c>
       <c r="B284" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C284" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D284">
@@ -12775,11 +12795,11 @@
         <v>434</v>
       </c>
       <c r="B285" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C285" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D285" s="4">
@@ -12794,11 +12814,11 @@
         <v>433</v>
       </c>
       <c r="B286" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C286" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D286">
@@ -12813,11 +12833,11 @@
         <v>432</v>
       </c>
       <c r="B287" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C287" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D287">
@@ -12832,11 +12852,11 @@
         <v>431</v>
       </c>
       <c r="B288" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C288" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D288" s="4">
@@ -12851,11 +12871,11 @@
         <v>430</v>
       </c>
       <c r="B289" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C289" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D289">
@@ -12870,11 +12890,11 @@
         <v>429</v>
       </c>
       <c r="B290" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C290" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D290">
@@ -12889,11 +12909,11 @@
         <v>428</v>
       </c>
       <c r="B291" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C291" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D291" s="4">
@@ -12908,11 +12928,11 @@
         <v>427</v>
       </c>
       <c r="B292" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C292" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D292">
@@ -12927,11 +12947,11 @@
         <v>426</v>
       </c>
       <c r="B293" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C293" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D293">
@@ -12946,11 +12966,11 @@
         <v>425</v>
       </c>
       <c r="B294" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C294" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D294" s="4">
@@ -12965,11 +12985,11 @@
         <v>424</v>
       </c>
       <c r="B295" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C295" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D295">
@@ -12984,11 +13004,11 @@
         <v>423</v>
       </c>
       <c r="B296" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C296" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D296">
@@ -13003,11 +13023,11 @@
         <v>422</v>
       </c>
       <c r="B297" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C297" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D297" s="4">
@@ -13022,11 +13042,11 @@
         <v>421</v>
       </c>
       <c r="B298" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C298" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D298">
@@ -13041,11 +13061,11 @@
         <v>420</v>
       </c>
       <c r="B299" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C299" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D299">
@@ -13060,11 +13080,11 @@
         <v>419</v>
       </c>
       <c r="B300" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C300" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D300" s="4">
@@ -13079,11 +13099,11 @@
         <v>418</v>
       </c>
       <c r="B301" t="b">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="C301" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D301">
@@ -13102,7 +13122,7 @@
         <v>1</v>
       </c>
       <c r="C302" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D302">
@@ -13117,11 +13137,11 @@
         <v>416</v>
       </c>
       <c r="B303" t="b">
-        <f t="shared" ref="B303:B366" ca="1" si="8">IF(CELL("format",D303)="G",IF(ABS(D303-E303) &lt;= ABS(D303*H$3),TRUE,FALSE),IF(D303=E303,TRUE,FALSE))</f>
+        <f t="shared" ref="B303:B366" ca="1" si="10">IF(CELL("format",D303)="G",IF(ABS(D303-E303) &lt;= ABS(D303*H$3),TRUE,FALSE),IF(D303=E303,TRUE,FALSE))</f>
         <v>1</v>
       </c>
       <c r="C303" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D303" s="4">
@@ -13136,11 +13156,11 @@
         <v>415</v>
       </c>
       <c r="B304" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C304" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D304">
@@ -13155,11 +13175,11 @@
         <v>414</v>
       </c>
       <c r="B305" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C305" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D305">
@@ -13174,11 +13194,11 @@
         <v>413</v>
       </c>
       <c r="B306" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C306" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D306" s="4">
@@ -13193,11 +13213,11 @@
         <v>412</v>
       </c>
       <c r="B307" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C307" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D307">
@@ -13212,11 +13232,11 @@
         <v>411</v>
       </c>
       <c r="B308" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C308" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D308">
@@ -13231,11 +13251,11 @@
         <v>410</v>
       </c>
       <c r="B309" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C309" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D309" s="4">
@@ -13250,11 +13270,11 @@
         <v>409</v>
       </c>
       <c r="B310" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C310" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D310">
@@ -13269,11 +13289,11 @@
         <v>408</v>
       </c>
       <c r="B311" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C311" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D311">
@@ -13288,11 +13308,11 @@
         <v>407</v>
       </c>
       <c r="B312" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C312" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D312" s="4">
@@ -13307,11 +13327,11 @@
         <v>406</v>
       </c>
       <c r="B313" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C313" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D313">
@@ -13326,11 +13346,11 @@
         <v>405</v>
       </c>
       <c r="B314" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C314" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D314">
@@ -13345,11 +13365,11 @@
         <v>404</v>
       </c>
       <c r="B315" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C315" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D315" s="4">
@@ -13364,11 +13384,11 @@
         <v>403</v>
       </c>
       <c r="B316" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C316" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D316">
@@ -13383,11 +13403,11 @@
         <v>402</v>
       </c>
       <c r="B317" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C317" s="8">
-        <f t="shared" ref="C317:C380" si="9">ABS(D317-E317)/ABS(D317)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D317">
@@ -13402,7 +13422,7 @@
         <v>401</v>
       </c>
       <c r="B318" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C318" s="8">
@@ -13421,7 +13441,7 @@
         <v>400</v>
       </c>
       <c r="B319" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C319" s="8">
@@ -13440,7 +13460,7 @@
         <v>399</v>
       </c>
       <c r="B320" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C320" s="8">
@@ -13459,7 +13479,7 @@
         <v>398</v>
       </c>
       <c r="B321" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C321" s="8">
@@ -13478,7 +13498,7 @@
         <v>397</v>
       </c>
       <c r="B322" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C322" s="8">
@@ -13497,7 +13517,7 @@
         <v>396</v>
       </c>
       <c r="B323" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C323" s="8">
@@ -13516,7 +13536,7 @@
         <v>395</v>
       </c>
       <c r="B324" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C324" s="8">
@@ -13535,7 +13555,7 @@
         <v>394</v>
       </c>
       <c r="B325" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C325" s="8">
@@ -13554,7 +13574,7 @@
         <v>393</v>
       </c>
       <c r="B326" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C326" s="8">
@@ -13573,11 +13593,11 @@
         <v>392</v>
       </c>
       <c r="B327" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C327" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="C327:C390" si="11">ABS(D327-E327)/ABS(D327)</f>
         <v>0</v>
       </c>
       <c r="D327">
@@ -13592,11 +13612,11 @@
         <v>391</v>
       </c>
       <c r="B328" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C328" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D328">
@@ -13611,11 +13631,11 @@
         <v>390</v>
       </c>
       <c r="B329" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C329" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D329">
@@ -13630,11 +13650,11 @@
         <v>389</v>
       </c>
       <c r="B330" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C330" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D330">
@@ -13649,11 +13669,11 @@
         <v>388</v>
       </c>
       <c r="B331" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C331" s="8" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D331">
@@ -13668,11 +13688,11 @@
         <v>387</v>
       </c>
       <c r="B332" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C332" s="8" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D332">
@@ -13687,11 +13707,11 @@
         <v>386</v>
       </c>
       <c r="B333" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C333" s="8" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D333">
@@ -13706,11 +13726,11 @@
         <v>385</v>
       </c>
       <c r="B334" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C334" s="8" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D334">
@@ -13725,11 +13745,11 @@
         <v>384</v>
       </c>
       <c r="B335" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C335" s="8" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D335">
@@ -13744,11 +13764,11 @@
         <v>383</v>
       </c>
       <c r="B336" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C336" s="8" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D336">
@@ -13763,11 +13783,11 @@
         <v>382</v>
       </c>
       <c r="B337" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C337" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D337">
@@ -13782,11 +13802,11 @@
         <v>381</v>
       </c>
       <c r="B338" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C338" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D338">
@@ -13801,11 +13821,11 @@
         <v>380</v>
       </c>
       <c r="B339" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C339" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D339">
@@ -13820,11 +13840,11 @@
         <v>379</v>
       </c>
       <c r="B340" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C340" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D340">
@@ -13839,11 +13859,11 @@
         <v>378</v>
       </c>
       <c r="B341" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C341" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D341">
@@ -13858,11 +13878,11 @@
         <v>377</v>
       </c>
       <c r="B342" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C342" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D342">
@@ -13877,11 +13897,11 @@
         <v>376</v>
       </c>
       <c r="B343" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C343" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D343">
@@ -13896,11 +13916,11 @@
         <v>375</v>
       </c>
       <c r="B344" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C344" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D344">
@@ -13915,11 +13935,11 @@
         <v>374</v>
       </c>
       <c r="B345" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C345" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D345">
@@ -13934,11 +13954,11 @@
         <v>373</v>
       </c>
       <c r="B346" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C346" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D346">
@@ -13953,11 +13973,11 @@
         <v>372</v>
       </c>
       <c r="B347" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C347" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D347">
@@ -13972,11 +13992,11 @@
         <v>371</v>
       </c>
       <c r="B348" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C348" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D348">
@@ -13991,11 +14011,11 @@
         <v>370</v>
       </c>
       <c r="B349" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C349" s="8" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D349">
@@ -14010,11 +14030,11 @@
         <v>369</v>
       </c>
       <c r="B350" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C350" s="8" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D350">
@@ -14029,11 +14049,11 @@
         <v>368</v>
       </c>
       <c r="B351" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C351" s="8" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D351">
@@ -14048,11 +14068,11 @@
         <v>367</v>
       </c>
       <c r="B352" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C352" s="8" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D352">
@@ -14067,11 +14087,11 @@
         <v>366</v>
       </c>
       <c r="B353" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C353" s="8" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D353">
@@ -14086,11 +14106,11 @@
         <v>365</v>
       </c>
       <c r="B354" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C354" s="8" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D354">
@@ -14105,11 +14125,11 @@
         <v>364</v>
       </c>
       <c r="B355" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C355" s="8" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D355">
@@ -14124,11 +14144,11 @@
         <v>363</v>
       </c>
       <c r="B356" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C356" s="8" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D356">
@@ -14143,11 +14163,11 @@
         <v>362</v>
       </c>
       <c r="B357" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C357" s="8" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D357">
@@ -14162,11 +14182,11 @@
         <v>361</v>
       </c>
       <c r="B358" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C358" s="8" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D358">
@@ -14181,11 +14201,11 @@
         <v>360</v>
       </c>
       <c r="B359" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C359" s="8" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D359">
@@ -14200,11 +14220,11 @@
         <v>359</v>
       </c>
       <c r="B360" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C360" s="8" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D360">
@@ -14219,11 +14239,11 @@
         <v>358</v>
       </c>
       <c r="B361" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C361" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D361">
@@ -14238,11 +14258,11 @@
         <v>357</v>
       </c>
       <c r="B362" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C362" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D362">
@@ -14257,11 +14277,11 @@
         <v>356</v>
       </c>
       <c r="B363" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C363" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D363">
@@ -14276,11 +14296,11 @@
         <v>355</v>
       </c>
       <c r="B364" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C364" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D364">
@@ -14295,11 +14315,11 @@
         <v>354</v>
       </c>
       <c r="B365" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C365" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D365">
@@ -14314,11 +14334,11 @@
         <v>353</v>
       </c>
       <c r="B366" t="b">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="C366" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D366">
@@ -14333,11 +14353,11 @@
         <v>352</v>
       </c>
       <c r="B367" t="b">
-        <f t="shared" ref="B367:B430" ca="1" si="10">IF(CELL("format",D367)="G",IF(ABS(D367-E367) &lt;= ABS(D367*H$3),TRUE,FALSE),IF(D367=E367,TRUE,FALSE))</f>
+        <f t="shared" ref="B367:B430" ca="1" si="12">IF(CELL("format",D367)="G",IF(ABS(D367-E367) &lt;= ABS(D367*H$3),TRUE,FALSE),IF(D367=E367,TRUE,FALSE))</f>
         <v>1</v>
       </c>
       <c r="C367" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D367">
@@ -14352,11 +14372,11 @@
         <v>351</v>
       </c>
       <c r="B368" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C368" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D368">
@@ -14371,11 +14391,11 @@
         <v>350</v>
       </c>
       <c r="B369" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C369" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D369">
@@ -14390,11 +14410,11 @@
         <v>349</v>
       </c>
       <c r="B370" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C370" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D370">
@@ -14409,11 +14429,11 @@
         <v>348</v>
       </c>
       <c r="B371" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C371" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D371">
@@ -14428,11 +14448,11 @@
         <v>347</v>
       </c>
       <c r="B372" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C372" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D372">
@@ -14447,11 +14467,11 @@
         <v>346</v>
       </c>
       <c r="B373" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C373" s="8" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D373">
@@ -14466,11 +14486,11 @@
         <v>345</v>
       </c>
       <c r="B374" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C374" s="8" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D374">
@@ -14485,11 +14505,11 @@
         <v>344</v>
       </c>
       <c r="B375" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C375" s="8" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D375">
@@ -14504,11 +14524,11 @@
         <v>343</v>
       </c>
       <c r="B376" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C376" s="8" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D376">
@@ -14523,11 +14543,11 @@
         <v>342</v>
       </c>
       <c r="B377" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C377" s="8" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D377">
@@ -14542,11 +14562,11 @@
         <v>341</v>
       </c>
       <c r="B378" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C378" s="8" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D378">
@@ -14561,11 +14581,11 @@
         <v>340</v>
       </c>
       <c r="B379" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C379" s="8" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D379">
@@ -14580,11 +14600,11 @@
         <v>339</v>
       </c>
       <c r="B380" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C380" s="8" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D380">
@@ -14599,11 +14619,11 @@
         <v>338</v>
       </c>
       <c r="B381" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C381" s="8" t="e">
-        <f t="shared" ref="C381:C444" si="11">ABS(D381-E381)/ABS(D381)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D381">
@@ -14618,7 +14638,7 @@
         <v>337</v>
       </c>
       <c r="B382" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C382" s="8" t="e">
@@ -14637,7 +14657,7 @@
         <v>336</v>
       </c>
       <c r="B383" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C383" s="8">
@@ -14656,7 +14676,7 @@
         <v>335</v>
       </c>
       <c r="B384" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C384" s="8">
@@ -14675,7 +14695,7 @@
         <v>334</v>
       </c>
       <c r="B385" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C385" s="8">
@@ -14694,7 +14714,7 @@
         <v>333</v>
       </c>
       <c r="B386" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C386" s="8">
@@ -14713,7 +14733,7 @@
         <v>332</v>
       </c>
       <c r="B387" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C387" s="8">
@@ -14732,7 +14752,7 @@
         <v>331</v>
       </c>
       <c r="B388" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C388" s="8">
@@ -14751,7 +14771,7 @@
         <v>330</v>
       </c>
       <c r="B389" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C389" s="8">
@@ -14770,7 +14790,7 @@
         <v>329</v>
       </c>
       <c r="B390" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C390" s="8">
@@ -14789,11 +14809,11 @@
         <v>328</v>
       </c>
       <c r="B391" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C391" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="C391:C454" si="13">ABS(D391-E391)/ABS(D391)</f>
         <v>0</v>
       </c>
       <c r="D391">
@@ -14808,11 +14828,11 @@
         <v>327</v>
       </c>
       <c r="B392" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C392" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D392">
@@ -14827,11 +14847,11 @@
         <v>326</v>
       </c>
       <c r="B393" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C393" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D393">
@@ -14846,11 +14866,11 @@
         <v>325</v>
       </c>
       <c r="B394" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C394" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D394">
@@ -14865,11 +14885,11 @@
         <v>324</v>
       </c>
       <c r="B395" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C395" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D395">
@@ -14884,11 +14904,11 @@
         <v>323</v>
       </c>
       <c r="B396" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C396" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D396">
@@ -14903,11 +14923,11 @@
         <v>322</v>
       </c>
       <c r="B397" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C397" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D397">
@@ -14922,11 +14942,11 @@
         <v>321</v>
       </c>
       <c r="B398" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C398" s="8" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D398">
@@ -14941,11 +14961,11 @@
         <v>320</v>
       </c>
       <c r="B399" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C399" s="8" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D399">
@@ -14960,11 +14980,11 @@
         <v>319</v>
       </c>
       <c r="B400" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C400" s="8" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D400">
@@ -14979,11 +14999,11 @@
         <v>318</v>
       </c>
       <c r="B401" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C401" s="8" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D401">
@@ -14998,11 +15018,11 @@
         <v>317</v>
       </c>
       <c r="B402" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C402" s="8" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D402">
@@ -15017,11 +15037,11 @@
         <v>316</v>
       </c>
       <c r="B403" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C403" s="8" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D403">
@@ -15036,11 +15056,11 @@
         <v>315</v>
       </c>
       <c r="B404" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C404" s="8" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D404">
@@ -15055,11 +15075,11 @@
         <v>314</v>
       </c>
       <c r="B405" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C405" s="8" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D405">
@@ -15074,11 +15094,11 @@
         <v>313</v>
       </c>
       <c r="B406" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C406" s="8" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D406">
@@ -15093,11 +15113,11 @@
         <v>312</v>
       </c>
       <c r="B407" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C407" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D407">
@@ -15112,11 +15132,11 @@
         <v>311</v>
       </c>
       <c r="B408" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C408" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D408">
@@ -15131,11 +15151,11 @@
         <v>310</v>
       </c>
       <c r="B409" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C409" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D409">
@@ -15150,11 +15170,11 @@
         <v>309</v>
       </c>
       <c r="B410" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C410" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D410">
@@ -15169,11 +15189,11 @@
         <v>308</v>
       </c>
       <c r="B411" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C411" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D411">
@@ -15188,11 +15208,11 @@
         <v>307</v>
       </c>
       <c r="B412" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C412" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D412">
@@ -15207,11 +15227,11 @@
         <v>306</v>
       </c>
       <c r="B413" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C413" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D413">
@@ -15226,11 +15246,11 @@
         <v>305</v>
       </c>
       <c r="B414" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C414" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D414">
@@ -15245,11 +15265,11 @@
         <v>304</v>
       </c>
       <c r="B415" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C415" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D415">
@@ -15264,11 +15284,11 @@
         <v>303</v>
       </c>
       <c r="B416" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C416" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D416">
@@ -15283,11 +15303,11 @@
         <v>302</v>
       </c>
       <c r="B417" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C417" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D417">
@@ -15302,11 +15322,11 @@
         <v>301</v>
       </c>
       <c r="B418" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C418" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D418">
@@ -15321,11 +15341,11 @@
         <v>300</v>
       </c>
       <c r="B419" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C419" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D419">
@@ -15340,11 +15360,11 @@
         <v>299</v>
       </c>
       <c r="B420" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C420" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D420">
@@ -15359,11 +15379,11 @@
         <v>298</v>
       </c>
       <c r="B421" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C421" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D421">
@@ -15378,11 +15398,11 @@
         <v>297</v>
       </c>
       <c r="B422" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C422" s="8" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D422">
@@ -15397,11 +15417,11 @@
         <v>296</v>
       </c>
       <c r="B423" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C423" s="8" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D423">
@@ -15416,11 +15436,11 @@
         <v>295</v>
       </c>
       <c r="B424" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C424" s="8" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D424">
@@ -15435,11 +15455,11 @@
         <v>294</v>
       </c>
       <c r="B425" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C425" s="8" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D425">
@@ -15454,11 +15474,11 @@
         <v>293</v>
       </c>
       <c r="B426" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C426" s="8" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D426">
@@ -15473,11 +15493,11 @@
         <v>292</v>
       </c>
       <c r="B427" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C427" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D427">
@@ -15492,11 +15512,11 @@
         <v>291</v>
       </c>
       <c r="B428" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C428" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D428">
@@ -15511,11 +15531,11 @@
         <v>290</v>
       </c>
       <c r="B429" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C429" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D429">
@@ -15530,11 +15550,11 @@
         <v>289</v>
       </c>
       <c r="B430" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="C430" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D430">
@@ -15549,11 +15569,11 @@
         <v>288</v>
       </c>
       <c r="B431" t="b">
-        <f t="shared" ref="B431:B494" ca="1" si="12">IF(CELL("format",D431)="G",IF(ABS(D431-E431) &lt;= ABS(D431*H$3),TRUE,FALSE),IF(D431=E431,TRUE,FALSE))</f>
+        <f t="shared" ref="B431:B494" ca="1" si="14">IF(CELL("format",D431)="G",IF(ABS(D431-E431) &lt;= ABS(D431*H$3),TRUE,FALSE),IF(D431=E431,TRUE,FALSE))</f>
         <v>1</v>
       </c>
       <c r="C431" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D431">
@@ -15568,11 +15588,11 @@
         <v>287</v>
       </c>
       <c r="B432" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C432" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D432">
@@ -15587,11 +15607,11 @@
         <v>286</v>
       </c>
       <c r="B433" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C433" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D433">
@@ -15606,11 +15626,11 @@
         <v>285</v>
       </c>
       <c r="B434" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C434" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D434">
@@ -15625,11 +15645,11 @@
         <v>284</v>
       </c>
       <c r="B435" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C435" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D435">
@@ -15644,11 +15664,11 @@
         <v>283</v>
       </c>
       <c r="B436" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C436" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D436">
@@ -15663,11 +15683,11 @@
         <v>282</v>
       </c>
       <c r="B437" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C437" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D437">
@@ -15682,11 +15702,11 @@
         <v>281</v>
       </c>
       <c r="B438" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C438" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D438">
@@ -15701,11 +15721,11 @@
         <v>280</v>
       </c>
       <c r="B439" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C439" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D439">
@@ -15720,11 +15740,11 @@
         <v>279</v>
       </c>
       <c r="B440" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C440" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D440">
@@ -15739,11 +15759,11 @@
         <v>278</v>
       </c>
       <c r="B441" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C441" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D441">
@@ -15758,11 +15778,11 @@
         <v>277</v>
       </c>
       <c r="B442" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C442" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D442">
@@ -15777,11 +15797,11 @@
         <v>276</v>
       </c>
       <c r="B443" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C443" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D443">
@@ -15796,11 +15816,11 @@
         <v>275</v>
       </c>
       <c r="B444" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C444" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D444">
@@ -15815,11 +15835,11 @@
         <v>274</v>
       </c>
       <c r="B445" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C445" s="8">
-        <f t="shared" ref="C445:C508" si="13">ABS(D445-E445)/ABS(D445)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D445">
@@ -15834,7 +15854,7 @@
         <v>273</v>
       </c>
       <c r="B446" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C446" s="8">
@@ -15853,7 +15873,7 @@
         <v>272</v>
       </c>
       <c r="B447" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C447" s="8">
@@ -15872,7 +15892,7 @@
         <v>271</v>
       </c>
       <c r="B448" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C448" s="8">
@@ -15891,7 +15911,7 @@
         <v>270</v>
       </c>
       <c r="B449" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C449" s="8">
@@ -15910,7 +15930,7 @@
         <v>269</v>
       </c>
       <c r="B450" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C450" s="8">
@@ -15929,7 +15949,7 @@
         <v>268</v>
       </c>
       <c r="B451" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C451" s="8">
@@ -15948,7 +15968,7 @@
         <v>267</v>
       </c>
       <c r="B452" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C452" s="8">
@@ -15967,7 +15987,7 @@
         <v>266</v>
       </c>
       <c r="B453" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C453" s="8">
@@ -15986,7 +16006,7 @@
         <v>265</v>
       </c>
       <c r="B454" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C454" s="8">
@@ -16005,11 +16025,11 @@
         <v>264</v>
       </c>
       <c r="B455" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C455" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="C455:C518" si="15">ABS(D455-E455)/ABS(D455)</f>
         <v>0</v>
       </c>
       <c r="D455">
@@ -16024,11 +16044,11 @@
         <v>263</v>
       </c>
       <c r="B456" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C456" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D456">
@@ -16043,11 +16063,11 @@
         <v>262</v>
       </c>
       <c r="B457" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C457" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D457">
@@ -16062,11 +16082,11 @@
         <v>261</v>
       </c>
       <c r="B458" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C458" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D458">
@@ -16081,11 +16101,11 @@
         <v>260</v>
       </c>
       <c r="B459" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C459" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D459">
@@ -16100,11 +16120,11 @@
         <v>259</v>
       </c>
       <c r="B460" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C460" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D460">
@@ -16119,11 +16139,11 @@
         <v>258</v>
       </c>
       <c r="B461" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C461" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D461">
@@ -16138,11 +16158,11 @@
         <v>257</v>
       </c>
       <c r="B462" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C462" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D462">
@@ -16157,11 +16177,11 @@
         <v>256</v>
       </c>
       <c r="B463" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C463" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D463">
@@ -16176,11 +16196,11 @@
         <v>255</v>
       </c>
       <c r="B464" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C464" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D464">
@@ -16195,11 +16215,11 @@
         <v>254</v>
       </c>
       <c r="B465" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C465" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D465">
@@ -16214,11 +16234,11 @@
         <v>253</v>
       </c>
       <c r="B466" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C466" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D466">
@@ -16233,11 +16253,11 @@
         <v>252</v>
       </c>
       <c r="B467" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C467" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D467">
@@ -16252,11 +16272,11 @@
         <v>251</v>
       </c>
       <c r="B468" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C468" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D468">
@@ -16271,11 +16291,11 @@
         <v>250</v>
       </c>
       <c r="B469" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C469" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D469">
@@ -16290,11 +16310,11 @@
         <v>249</v>
       </c>
       <c r="B470" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C470" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D470">
@@ -16309,11 +16329,11 @@
         <v>248</v>
       </c>
       <c r="B471" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C471" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D471">
@@ -16328,11 +16348,11 @@
         <v>247</v>
       </c>
       <c r="B472" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C472" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D472">
@@ -16347,11 +16367,11 @@
         <v>246</v>
       </c>
       <c r="B473" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C473" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D473">
@@ -16366,11 +16386,11 @@
         <v>245</v>
       </c>
       <c r="B474" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C474" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D474">
@@ -16385,11 +16405,11 @@
         <v>244</v>
       </c>
       <c r="B475" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C475" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D475">
@@ -16404,11 +16424,11 @@
         <v>243</v>
       </c>
       <c r="B476" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C476" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D476">
@@ -16423,11 +16443,11 @@
         <v>242</v>
       </c>
       <c r="B477" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C477" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D477">
@@ -16442,11 +16462,11 @@
         <v>241</v>
       </c>
       <c r="B478" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C478" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D478">
@@ -16461,11 +16481,11 @@
         <v>240</v>
       </c>
       <c r="B479" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C479" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D479">
@@ -16480,11 +16500,11 @@
         <v>239</v>
       </c>
       <c r="B480" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C480" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D480">
@@ -16499,11 +16519,11 @@
         <v>238</v>
       </c>
       <c r="B481" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C481" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D481">
@@ -16518,11 +16538,11 @@
         <v>237</v>
       </c>
       <c r="B482" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C482" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D482">
@@ -16537,11 +16557,11 @@
         <v>236</v>
       </c>
       <c r="B483" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C483" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D483">
@@ -16556,11 +16576,11 @@
         <v>235</v>
       </c>
       <c r="B484" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C484" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D484">
@@ -16575,11 +16595,11 @@
         <v>234</v>
       </c>
       <c r="B485" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C485" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D485">
@@ -16594,11 +16614,11 @@
         <v>233</v>
       </c>
       <c r="B486" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C486" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D486">
@@ -16613,11 +16633,11 @@
         <v>232</v>
       </c>
       <c r="B487" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C487" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D487">
@@ -16632,11 +16652,11 @@
         <v>231</v>
       </c>
       <c r="B488" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C488" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D488">
@@ -16651,11 +16671,11 @@
         <v>230</v>
       </c>
       <c r="B489" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C489" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D489">
@@ -16670,11 +16690,11 @@
         <v>229</v>
       </c>
       <c r="B490" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C490" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D490">
@@ -16689,11 +16709,11 @@
         <v>228</v>
       </c>
       <c r="B491" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C491" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D491">
@@ -16708,11 +16728,11 @@
         <v>227</v>
       </c>
       <c r="B492" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C492" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D492">
@@ -16727,11 +16747,11 @@
         <v>226</v>
       </c>
       <c r="B493" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C493" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D493">
@@ -16746,11 +16766,11 @@
         <v>225</v>
       </c>
       <c r="B494" t="b">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="C494" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D494">
@@ -16765,11 +16785,11 @@
         <v>224</v>
       </c>
       <c r="B495" t="b">
-        <f t="shared" ref="B495:B558" ca="1" si="14">IF(CELL("format",D495)="G",IF(ABS(D495-E495) &lt;= ABS(D495*H$3),TRUE,FALSE),IF(D495=E495,TRUE,FALSE))</f>
+        <f t="shared" ref="B495:B558" ca="1" si="16">IF(CELL("format",D495)="G",IF(ABS(D495-E495) &lt;= ABS(D495*H$3),TRUE,FALSE),IF(D495=E495,TRUE,FALSE))</f>
         <v>1</v>
       </c>
       <c r="C495" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D495">
@@ -16784,11 +16804,11 @@
         <v>223</v>
       </c>
       <c r="B496" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C496" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D496">
@@ -16803,11 +16823,11 @@
         <v>222</v>
       </c>
       <c r="B497" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C497" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D497">
@@ -16822,11 +16842,11 @@
         <v>221</v>
       </c>
       <c r="B498" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C498" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D498">
@@ -16841,11 +16861,11 @@
         <v>220</v>
       </c>
       <c r="B499" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C499" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D499">
@@ -16860,11 +16880,11 @@
         <v>219</v>
       </c>
       <c r="B500" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C500" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D500">
@@ -16879,11 +16899,11 @@
         <v>218</v>
       </c>
       <c r="B501" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C501" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D501">
@@ -16898,11 +16918,11 @@
         <v>217</v>
       </c>
       <c r="B502" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C502" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D502">
@@ -16917,11 +16937,11 @@
         <v>216</v>
       </c>
       <c r="B503" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C503" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D503">
@@ -16936,11 +16956,11 @@
         <v>215</v>
       </c>
       <c r="B504" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C504" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D504">
@@ -16955,11 +16975,11 @@
         <v>214</v>
       </c>
       <c r="B505" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C505" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D505">
@@ -16974,11 +16994,11 @@
         <v>213</v>
       </c>
       <c r="B506" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C506" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D506">
@@ -16993,11 +17013,11 @@
         <v>212</v>
       </c>
       <c r="B507" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C507" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D507">
@@ -17012,11 +17032,11 @@
         <v>211</v>
       </c>
       <c r="B508" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C508" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D508">
@@ -17031,11 +17051,11 @@
         <v>210</v>
       </c>
       <c r="B509" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C509" s="8">
-        <f t="shared" ref="C509:C572" si="15">ABS(D509-E509)/ABS(D509)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D509">
@@ -17050,7 +17070,7 @@
         <v>209</v>
       </c>
       <c r="B510" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C510" s="8">
@@ -17069,7 +17089,7 @@
         <v>208</v>
       </c>
       <c r="B511" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C511" s="8">
@@ -17088,7 +17108,7 @@
         <v>207</v>
       </c>
       <c r="B512" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C512" s="8">
@@ -17107,7 +17127,7 @@
         <v>206</v>
       </c>
       <c r="B513" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C513" s="8">
@@ -17126,7 +17146,7 @@
         <v>205</v>
       </c>
       <c r="B514" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C514" s="8">
@@ -17145,7 +17165,7 @@
         <v>204</v>
       </c>
       <c r="B515" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C515" s="8">
@@ -17164,7 +17184,7 @@
         <v>203</v>
       </c>
       <c r="B516" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C516" s="8">
@@ -17183,7 +17203,7 @@
         <v>202</v>
       </c>
       <c r="B517" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C517" s="8">
@@ -17202,7 +17222,7 @@
         <v>201</v>
       </c>
       <c r="B518" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C518" s="8">
@@ -17221,11 +17241,11 @@
         <v>200</v>
       </c>
       <c r="B519" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C519" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="C519:C582" si="17">ABS(D519-E519)/ABS(D519)</f>
         <v>0</v>
       </c>
       <c r="D519">
@@ -17240,11 +17260,11 @@
         <v>199</v>
       </c>
       <c r="B520" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C520" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D520">
@@ -17259,11 +17279,11 @@
         <v>198</v>
       </c>
       <c r="B521" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C521" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D521">
@@ -17278,11 +17298,11 @@
         <v>197</v>
       </c>
       <c r="B522" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C522" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D522">
@@ -17297,11 +17317,11 @@
         <v>196</v>
       </c>
       <c r="B523" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C523" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D523">
@@ -17316,11 +17336,11 @@
         <v>195</v>
       </c>
       <c r="B524" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C524" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D524">
@@ -17335,11 +17355,11 @@
         <v>194</v>
       </c>
       <c r="B525" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C525" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D525">
@@ -17354,11 +17374,11 @@
         <v>193</v>
       </c>
       <c r="B526" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C526" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D526">
@@ -17373,11 +17393,11 @@
         <v>192</v>
       </c>
       <c r="B527" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C527" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D527">
@@ -17392,11 +17412,11 @@
         <v>191</v>
       </c>
       <c r="B528" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C528" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D528">
@@ -17411,11 +17431,11 @@
         <v>190</v>
       </c>
       <c r="B529" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C529" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D529">
@@ -17430,11 +17450,11 @@
         <v>189</v>
       </c>
       <c r="B530" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C530" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D530">
@@ -17449,11 +17469,11 @@
         <v>188</v>
       </c>
       <c r="B531" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C531" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D531">
@@ -17468,11 +17488,11 @@
         <v>187</v>
       </c>
       <c r="B532" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C532" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D532">
@@ -17487,11 +17507,11 @@
         <v>186</v>
       </c>
       <c r="B533" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C533" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D533">
@@ -17506,11 +17526,11 @@
         <v>185</v>
       </c>
       <c r="B534" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C534" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D534">
@@ -17525,11 +17545,11 @@
         <v>184</v>
       </c>
       <c r="B535" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C535" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D535">
@@ -17544,11 +17564,11 @@
         <v>183</v>
       </c>
       <c r="B536" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C536" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D536">
@@ -17563,11 +17583,11 @@
         <v>182</v>
       </c>
       <c r="B537" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C537" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D537">
@@ -17582,11 +17602,11 @@
         <v>181</v>
       </c>
       <c r="B538" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C538" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D538">
@@ -17601,11 +17621,11 @@
         <v>180</v>
       </c>
       <c r="B539" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C539" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D539">
@@ -17620,11 +17640,11 @@
         <v>179</v>
       </c>
       <c r="B540" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C540" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D540">
@@ -17639,11 +17659,11 @@
         <v>178</v>
       </c>
       <c r="B541" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C541" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D541">
@@ -17658,11 +17678,11 @@
         <v>177</v>
       </c>
       <c r="B542" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C542" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D542">
@@ -17677,11 +17697,11 @@
         <v>176</v>
       </c>
       <c r="B543" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C543" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D543">
@@ -17696,11 +17716,11 @@
         <v>175</v>
       </c>
       <c r="B544" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C544" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D544">
@@ -17715,11 +17735,11 @@
         <v>174</v>
       </c>
       <c r="B545" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C545" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D545">
@@ -17734,11 +17754,11 @@
         <v>173</v>
       </c>
       <c r="B546" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C546" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D546">
@@ -17753,11 +17773,11 @@
         <v>172</v>
       </c>
       <c r="B547" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C547" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D547">
@@ -17772,11 +17792,11 @@
         <v>171</v>
       </c>
       <c r="B548" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C548" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D548">
@@ -17791,11 +17811,11 @@
         <v>170</v>
       </c>
       <c r="B549" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C549" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D549">
@@ -17810,11 +17830,11 @@
         <v>169</v>
       </c>
       <c r="B550" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C550" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D550">
@@ -17829,11 +17849,11 @@
         <v>168</v>
       </c>
       <c r="B551" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C551" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D551">
@@ -17848,11 +17868,11 @@
         <v>167</v>
       </c>
       <c r="B552" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C552" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D552">
@@ -17867,11 +17887,11 @@
         <v>166</v>
       </c>
       <c r="B553" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C553" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D553">
@@ -17886,11 +17906,11 @@
         <v>165</v>
       </c>
       <c r="B554" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C554" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D554">
@@ -17905,11 +17925,11 @@
         <v>164</v>
       </c>
       <c r="B555" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C555" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D555">
@@ -17924,11 +17944,11 @@
         <v>163</v>
       </c>
       <c r="B556" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C556" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D556">
@@ -17943,11 +17963,11 @@
         <v>162</v>
       </c>
       <c r="B557" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C557" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D557">
@@ -17962,11 +17982,11 @@
         <v>161</v>
       </c>
       <c r="B558" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="C558" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D558">
@@ -17981,11 +18001,11 @@
         <v>160</v>
       </c>
       <c r="B559" t="b">
-        <f t="shared" ref="B559:B622" ca="1" si="16">IF(CELL("format",D559)="G",IF(ABS(D559-E559) &lt;= ABS(D559*H$3),TRUE,FALSE),IF(D559=E559,TRUE,FALSE))</f>
+        <f t="shared" ref="B559:B622" ca="1" si="18">IF(CELL("format",D559)="G",IF(ABS(D559-E559) &lt;= ABS(D559*H$3),TRUE,FALSE),IF(D559=E559,TRUE,FALSE))</f>
         <v>1</v>
       </c>
       <c r="C559" s="8" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D559">
@@ -18000,11 +18020,11 @@
         <v>159</v>
       </c>
       <c r="B560" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C560" s="8" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D560">
@@ -18019,11 +18039,11 @@
         <v>158</v>
       </c>
       <c r="B561" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C561" s="8" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D561">
@@ -18038,11 +18058,11 @@
         <v>157</v>
       </c>
       <c r="B562" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C562" s="8" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D562">
@@ -18057,11 +18077,11 @@
         <v>156</v>
       </c>
       <c r="B563" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C563" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D563">
@@ -18076,11 +18096,11 @@
         <v>155</v>
       </c>
       <c r="B564" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C564" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D564">
@@ -18095,11 +18115,11 @@
         <v>154</v>
       </c>
       <c r="B565" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C565" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D565">
@@ -18114,11 +18134,11 @@
         <v>153</v>
       </c>
       <c r="B566" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C566" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D566">
@@ -18133,11 +18153,11 @@
         <v>152</v>
       </c>
       <c r="B567" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C567" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D567">
@@ -18152,11 +18172,11 @@
         <v>151</v>
       </c>
       <c r="B568" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C568" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D568">
@@ -18171,11 +18191,11 @@
         <v>150</v>
       </c>
       <c r="B569" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C569" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D569">
@@ -18190,11 +18210,11 @@
         <v>149</v>
       </c>
       <c r="B570" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C570" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D570">
@@ -18209,11 +18229,11 @@
         <v>148</v>
       </c>
       <c r="B571" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C571" s="8" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D571">
@@ -18228,11 +18248,11 @@
         <v>147</v>
       </c>
       <c r="B572" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C572" s="8" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D572">
@@ -18247,11 +18267,11 @@
         <v>146</v>
       </c>
       <c r="B573" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C573" s="8" t="e">
-        <f t="shared" ref="C573:C636" si="17">ABS(D573-E573)/ABS(D573)</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D573">
@@ -18266,7 +18286,7 @@
         <v>145</v>
       </c>
       <c r="B574" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C574" s="8" t="e">
@@ -18285,7 +18305,7 @@
         <v>144</v>
       </c>
       <c r="B575" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C575" s="8" t="e">
@@ -18304,7 +18324,7 @@
         <v>143</v>
       </c>
       <c r="B576" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C576" s="8" t="e">
@@ -18323,7 +18343,7 @@
         <v>142</v>
       </c>
       <c r="B577" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C577" s="8" t="e">
@@ -18342,7 +18362,7 @@
         <v>141</v>
       </c>
       <c r="B578" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C578" s="8" t="e">
@@ -18361,7 +18381,7 @@
         <v>140</v>
       </c>
       <c r="B579" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C579" s="8" t="e">
@@ -18380,7 +18400,7 @@
         <v>139</v>
       </c>
       <c r="B580" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C580" s="8" t="e">
@@ -18399,7 +18419,7 @@
         <v>138</v>
       </c>
       <c r="B581" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C581" s="8" t="e">
@@ -18418,7 +18438,7 @@
         <v>137</v>
       </c>
       <c r="B582" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C582" s="8" t="e">
@@ -18437,11 +18457,11 @@
         <v>136</v>
       </c>
       <c r="B583" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C583" s="8" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="C583:C646" si="19">ABS(D583-E583)/ABS(D583)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D583">
@@ -18456,11 +18476,11 @@
         <v>135</v>
       </c>
       <c r="B584" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C584" s="8" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D584">
@@ -18475,11 +18495,11 @@
         <v>134</v>
       </c>
       <c r="B585" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C585" s="8" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D585">
@@ -18494,11 +18514,11 @@
         <v>133</v>
       </c>
       <c r="B586" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C586" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D586">
@@ -18513,11 +18533,11 @@
         <v>132</v>
       </c>
       <c r="B587" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C587" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D587">
@@ -18532,11 +18552,11 @@
         <v>131</v>
       </c>
       <c r="B588" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C588" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D588">
@@ -18551,11 +18571,11 @@
         <v>130</v>
       </c>
       <c r="B589" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C589" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D589">
@@ -18570,11 +18590,11 @@
         <v>129</v>
       </c>
       <c r="B590" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C590" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D590">
@@ -18589,11 +18609,11 @@
         <v>128</v>
       </c>
       <c r="B591" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C591" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D591">
@@ -18608,11 +18628,11 @@
         <v>127</v>
       </c>
       <c r="B592" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C592" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D592">
@@ -18627,11 +18647,11 @@
         <v>126</v>
       </c>
       <c r="B593" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C593" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D593">
@@ -18646,11 +18666,11 @@
         <v>125</v>
       </c>
       <c r="B594" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C594" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D594">
@@ -18665,11 +18685,11 @@
         <v>124</v>
       </c>
       <c r="B595" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C595" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D595">
@@ -18684,11 +18704,11 @@
         <v>123</v>
       </c>
       <c r="B596" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C596" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D596">
@@ -18703,11 +18723,11 @@
         <v>122</v>
       </c>
       <c r="B597" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C597" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D597">
@@ -18722,11 +18742,11 @@
         <v>121</v>
       </c>
       <c r="B598" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C598" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D598">
@@ -18741,11 +18761,11 @@
         <v>120</v>
       </c>
       <c r="B599" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C599" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D599">
@@ -18760,11 +18780,11 @@
         <v>119</v>
       </c>
       <c r="B600" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C600" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D600">
@@ -18779,11 +18799,11 @@
         <v>118</v>
       </c>
       <c r="B601" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C601" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D601">
@@ -18798,11 +18818,11 @@
         <v>117</v>
       </c>
       <c r="B602" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C602" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D602">
@@ -18817,11 +18837,11 @@
         <v>116</v>
       </c>
       <c r="B603" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C603" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D603">
@@ -18836,11 +18856,11 @@
         <v>115</v>
       </c>
       <c r="B604" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C604" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D604">
@@ -18855,11 +18875,11 @@
         <v>114</v>
       </c>
       <c r="B605" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C605" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D605">
@@ -18874,11 +18894,11 @@
         <v>113</v>
       </c>
       <c r="B606" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C606" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D606">
@@ -18893,11 +18913,11 @@
         <v>112</v>
       </c>
       <c r="B607" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C607" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D607">
@@ -18912,11 +18932,11 @@
         <v>111</v>
       </c>
       <c r="B608" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C608" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D608">
@@ -18931,11 +18951,11 @@
         <v>110</v>
       </c>
       <c r="B609" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C609" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D609">
@@ -18950,11 +18970,11 @@
         <v>109</v>
       </c>
       <c r="B610" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C610" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D610">
@@ -18969,11 +18989,11 @@
         <v>108</v>
       </c>
       <c r="B611" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C611" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D611">
@@ -18988,11 +19008,11 @@
         <v>107</v>
       </c>
       <c r="B612" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C612" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D612">
@@ -19007,11 +19027,11 @@
         <v>106</v>
       </c>
       <c r="B613" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C613" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D613">
@@ -19026,11 +19046,11 @@
         <v>105</v>
       </c>
       <c r="B614" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C614" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D614">
@@ -19045,11 +19065,11 @@
         <v>104</v>
       </c>
       <c r="B615" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C615" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D615">
@@ -19064,11 +19084,11 @@
         <v>103</v>
       </c>
       <c r="B616" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C616" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D616">
@@ -19083,11 +19103,11 @@
         <v>102</v>
       </c>
       <c r="B617" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C617" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D617">
@@ -19102,11 +19122,11 @@
         <v>101</v>
       </c>
       <c r="B618" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C618" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D618">
@@ -19121,11 +19141,11 @@
         <v>100</v>
       </c>
       <c r="B619" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C619" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D619">
@@ -19140,11 +19160,11 @@
         <v>99</v>
       </c>
       <c r="B620" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C620" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D620">
@@ -19159,11 +19179,11 @@
         <v>98</v>
       </c>
       <c r="B621" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C621" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D621">
@@ -19178,11 +19198,11 @@
         <v>97</v>
       </c>
       <c r="B622" t="b">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="C622" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D622">
@@ -19197,11 +19217,11 @@
         <v>96</v>
       </c>
       <c r="B623" t="b">
-        <f t="shared" ref="B623:B660" ca="1" si="18">IF(CELL("format",D623)="G",IF(ABS(D623-E623) &lt;= ABS(D623*H$3),TRUE,FALSE),IF(D623=E623,TRUE,FALSE))</f>
+        <f t="shared" ref="B623:B660" ca="1" si="20">IF(CELL("format",D623)="G",IF(ABS(D623-E623) &lt;= ABS(D623*H$3),TRUE,FALSE),IF(D623=E623,TRUE,FALSE))</f>
         <v>1</v>
       </c>
       <c r="C623" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D623">
@@ -19216,11 +19236,11 @@
         <v>95</v>
       </c>
       <c r="B624" t="b">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="C624" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D624">
@@ -19235,11 +19255,11 @@
         <v>94</v>
       </c>
       <c r="B625" t="b">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="C625" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D625">
@@ -19254,11 +19274,11 @@
         <v>93</v>
       </c>
       <c r="B626" t="b">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="C626" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D626">
@@ -19273,11 +19293,11 @@
         <v>92</v>
       </c>
       <c r="B627" t="b">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="C627" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D627">
@@ -19292,11 +19312,11 @@
         <v>91</v>
       </c>
       <c r="B628" t="b">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="C628" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D628">
@@ -19311,11 +19331,11 @@
         <v>90</v>
       </c>
       <c r="B629" t="b">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="C629" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D629">
@@ -19330,11 +19350,11 @@
         <v>89</v>
       </c>
       <c r="B630" t="b">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="C630" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D630">
@@ -19349,11 +19369,11 @@
         <v>88</v>
       </c>
       <c r="B631" t="b">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="C631" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D631">
@@ -19368,11 +19388,11 @@
         <v>87</v>
       </c>
       <c r="B632" t="b">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="C632" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D632">
@@ -19387,11 +19407,11 @@
         <v>86</v>
       </c>
       <c r="B633" t="b">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="C633" s="8" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D633">
@@ -19406,11 +19426,11 @@
         <v>85</v>
       </c>
       <c r="B634" t="b">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="C634" s="8" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D634">
@@ -19425,11 +19445,11 @@
         <v>84</v>
       </c>
       <c r="B635" t="b">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="C635" s="8" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D635">
@@ -19444,11 +19464,11 @@
         <v>83</v>
       </c>
       <c r="B636" t="b">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="C636" s="8" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D636">
@@ -19463,11 +19483,11 @@
         <v>82</v>
       </c>
       <c r="B637" t="b">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="C637" s="8" t="e">
-        <f t="shared" ref="C637:C660" si="19">ABS(D637-E637)/ABS(D637)</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D637">
@@ -19482,7 +19502,7 @@
         <v>81</v>
       </c>
       <c r="B638" t="b">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="C638" s="8" t="e">
@@ -19501,7 +19521,7 @@
         <v>80</v>
       </c>
       <c r="B639" t="b">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="C639" s="8" t="e">
@@ -19520,7 +19540,7 @@
         <v>79</v>
       </c>
       <c r="B640" t="b">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="C640" s="8" t="e">
@@ -19539,7 +19559,7 @@
         <v>78</v>
       </c>
       <c r="B641" t="b">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="C641" s="8" t="e">
@@ -19558,7 +19578,7 @@
         <v>77</v>
       </c>
       <c r="B642" t="b">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="C642" s="8" t="e">
@@ -19577,7 +19597,7 @@
         <v>76</v>
       </c>
       <c r="B643" t="b">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="C643" s="8" t="e">
@@ -19596,7 +19616,7 @@
         <v>75</v>
       </c>
       <c r="B644" t="b">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="C644" s="8" t="e">
@@ -19615,7 +19635,7 @@
         <v>74</v>
       </c>
       <c r="B645" t="b">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="C645" s="8" t="e">
@@ -19634,7 +19654,7 @@
         <v>73</v>
       </c>
       <c r="B646" t="b">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="C646" s="8" t="e">
@@ -19653,11 +19673,11 @@
         <v>72</v>
       </c>
       <c r="B647" t="b">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="C647" s="8" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="C647:C660" si="21">ABS(D647-E647)/ABS(D647)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D647">
@@ -19672,11 +19692,11 @@
         <v>71</v>
       </c>
       <c r="B648" t="b">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="C648" s="8" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D648">
@@ -19691,11 +19711,11 @@
         <v>70</v>
       </c>
       <c r="B649" t="b">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="C649" s="8" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D649">
@@ -19710,11 +19730,11 @@
         <v>69</v>
       </c>
       <c r="B650" t="b">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="C650" s="8" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D650">
@@ -19729,11 +19749,11 @@
         <v>68</v>
       </c>
       <c r="B651" t="b">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="C651" s="8" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D651">
@@ -19748,11 +19768,11 @@
         <v>67</v>
       </c>
       <c r="B652" t="b">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="C652" s="8" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D652">
@@ -19767,11 +19787,11 @@
         <v>66</v>
       </c>
       <c r="B653" t="b">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="C653" s="8" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D653">
@@ -19786,11 +19806,11 @@
         <v>65</v>
       </c>
       <c r="B654" t="b">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="C654" s="8" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D654">
@@ -19805,11 +19825,11 @@
         <v>64</v>
       </c>
       <c r="B655" t="b">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="C655" s="8" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D655">
@@ -19824,11 +19844,11 @@
         <v>63</v>
       </c>
       <c r="B656" t="b">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="C656" s="8" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D656">
@@ -19843,11 +19863,11 @@
         <v>62</v>
       </c>
       <c r="B657" t="b">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="C657" s="8" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D657">
@@ -19862,11 +19882,11 @@
         <v>61</v>
       </c>
       <c r="B658" t="b">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="C658" s="8" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D658">
@@ -19881,11 +19901,11 @@
         <v>60</v>
       </c>
       <c r="B659" t="b">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="C659" s="8" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D659">
@@ -19900,11 +19920,11 @@
         <v>59</v>
       </c>
       <c r="B660" t="b">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="C660" s="8" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D660">
@@ -19917,23 +19937,18 @@
   </sheetData>
   <autoFilter ref="A1:E660" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="B1:C6 B661:C1048576">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="false">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH("false",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:C124 B7 B126:C660 B125">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="false">
+  <conditionalFormatting sqref="B7:B660">
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH("false",B7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:C124 C126:C660">
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="false">
+  <conditionalFormatting sqref="C7:C660">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH("false",C7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C125:C660">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",C125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19944,11 +19959,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1437"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="E1449" sqref="E1449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -47254,12 +47269,12 @@
   </sheetData>
   <autoFilter ref="A1:E1437" xr:uid="{3658DFBE-1F59-D443-8645-E2D1C3041DCA}"/>
   <conditionalFormatting sqref="B8:C1437 B7">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="false">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH("false",B7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="false">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH("false",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47275,7 +47290,7 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -47391,7 +47406,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="8">
-        <f>ABS('AB CE'!D7-'AB CE'!E7)/ABS('AB CE'!D7)</f>
+        <f t="shared" ref="C7:C54" si="1">ABS(D7-E7)/ABS(D7)</f>
         <v>0</v>
       </c>
       <c r="D7">
@@ -47410,7 +47425,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="8">
-        <f>ABS('AB CE'!D8-'AB CE'!E8)/ABS('AB CE'!D8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D8">
@@ -47429,7 +47444,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="8">
-        <f>ABS('AB CE'!D9-'AB CE'!E9)/ABS('AB CE'!D9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D9">
@@ -47447,9 +47462,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="C10" s="8">
-        <f>ABS('AB CE'!D10-'AB CE'!E10)/ABS('AB CE'!D10)</f>
-        <v>0</v>
+      <c r="C10" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -47467,8 +47482,8 @@
         <v>1</v>
       </c>
       <c r="C11" s="8">
-        <f>ABS('AB CE'!D11-'AB CE'!E11)/ABS('AB CE'!D11)</f>
-        <v>8.413827119898111E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>31.189</v>
@@ -47486,7 +47501,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="8">
-        <f>ABS('AB CE'!D12-'AB CE'!E12)/ABS('AB CE'!D12)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D12">
@@ -47505,7 +47520,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="8">
-        <f>ABS('AB CE'!D13-'AB CE'!E13)/ABS('AB CE'!D13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D13">
@@ -47524,8 +47539,8 @@
         <v>1</v>
       </c>
       <c r="C14" s="8">
-        <f>ABS('AB CE'!D14-'AB CE'!E14)/ABS('AB CE'!D14)</f>
-        <v>1.0118627594562419E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>31.225999999999999</v>
@@ -47543,7 +47558,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="8">
-        <f>ABS('AB CE'!D15-'AB CE'!E15)/ABS('AB CE'!D15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D15">
@@ -47562,7 +47577,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="8">
-        <f>ABS('AB CE'!D16-'AB CE'!E16)/ABS('AB CE'!D16)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D16">
@@ -47581,7 +47596,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="8">
-        <f>ABS('AB CE'!D17-'AB CE'!E17)/ABS('AB CE'!D17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D17">
@@ -47600,7 +47615,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="8">
-        <f>ABS('AB CE'!D18-'AB CE'!E18)/ABS('AB CE'!D18)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D18">
@@ -47619,7 +47634,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="8">
-        <f>ABS('AB CE'!D19-'AB CE'!E19)/ABS('AB CE'!D19)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D19">
@@ -47638,7 +47653,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="8">
-        <f>ABS('AB CE'!D20-'AB CE'!E20)/ABS('AB CE'!D20)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D20">
@@ -47657,7 +47672,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="8">
-        <f>ABS('AB CE'!D21-'AB CE'!E21)/ABS('AB CE'!D21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D21">
@@ -47676,7 +47691,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="8">
-        <f>ABS('AB CE'!D22-'AB CE'!E22)/ABS('AB CE'!D22)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D22">
@@ -47695,7 +47710,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="8">
-        <f>ABS('AB CE'!D23-'AB CE'!E23)/ABS('AB CE'!D23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D23">
@@ -47714,7 +47729,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="8">
-        <f>ABS('AB CE'!D24-'AB CE'!E24)/ABS('AB CE'!D24)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D24">
@@ -47733,7 +47748,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="8">
-        <f>ABS('AB CE'!D25-'AB CE'!E25)/ABS('AB CE'!D25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D25">
@@ -47752,7 +47767,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="8">
-        <f>ABS('AB CE'!D26-'AB CE'!E26)/ABS('AB CE'!D26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D26">
@@ -47771,7 +47786,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="8">
-        <f>ABS('AB CE'!D27-'AB CE'!E27)/ABS('AB CE'!D27)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D27">
@@ -47790,8 +47805,8 @@
         <v>1</v>
       </c>
       <c r="C28" s="8">
-        <f>ABS('AB CE'!D28-'AB CE'!E28)/ABS('AB CE'!D28)</f>
-        <v>6.1713378101250584E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>43.41</v>
@@ -47809,7 +47824,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="8">
-        <f>ABS('AB CE'!D29-'AB CE'!E29)/ABS('AB CE'!D29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D29">
@@ -47828,7 +47843,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="8">
-        <f>ABS('AB CE'!D30-'AB CE'!E30)/ABS('AB CE'!D30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D30">
@@ -47847,8 +47862,8 @@
         <v>1</v>
       </c>
       <c r="C31" s="8">
-        <f>ABS('AB CE'!D31-'AB CE'!E31)/ABS('AB CE'!D31)</f>
-        <v>6.3423138613170921E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>1.29887E-4</v>
@@ -47866,7 +47881,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="8">
-        <f>ABS('AB CE'!D32-'AB CE'!E32)/ABS('AB CE'!D32)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D32" s="2">
@@ -47885,7 +47900,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="8">
-        <f>ABS('AB CE'!D33-'AB CE'!E33)/ABS('AB CE'!D33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D33">
@@ -47904,7 +47919,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="8">
-        <f>ABS('AB CE'!D34-'AB CE'!E34)/ABS('AB CE'!D34)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D34">
@@ -47923,7 +47938,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="8">
-        <f>ABS('AB CE'!D35-'AB CE'!E35)/ABS('AB CE'!D35)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D35">
@@ -47942,7 +47957,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="8">
-        <f>ABS('AB CE'!D36-'AB CE'!E36)/ABS('AB CE'!D36)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D36">
@@ -47961,7 +47976,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="8">
-        <f>ABS('AB CE'!D37-'AB CE'!E37)/ABS('AB CE'!D37)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D37">
@@ -47980,7 +47995,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="8">
-        <f>ABS('AB CE'!D38-'AB CE'!E38)/ABS('AB CE'!D38)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D38">
@@ -47999,7 +48014,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="8">
-        <f>ABS('AB CE'!D39-'AB CE'!E39)/ABS('AB CE'!D39)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D39">
@@ -48018,7 +48033,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="8">
-        <f>ABS('AB CE'!D40-'AB CE'!E40)/ABS('AB CE'!D40)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D40">
@@ -48037,7 +48052,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="8">
-        <f>ABS('AB CE'!D41-'AB CE'!E41)/ABS('AB CE'!D41)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D41">
@@ -48056,7 +48071,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="8">
-        <f>ABS('AB CE'!D42-'AB CE'!E42)/ABS('AB CE'!D42)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D42">
@@ -48075,7 +48090,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="8">
-        <f>ABS('AB CE'!D43-'AB CE'!E43)/ABS('AB CE'!D43)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D43">
@@ -48094,7 +48109,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="8">
-        <f>ABS('AB CE'!D44-'AB CE'!E44)/ABS('AB CE'!D44)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D44">
@@ -48113,8 +48128,8 @@
         <v>1</v>
       </c>
       <c r="C45" s="8">
-        <f>ABS('AB CE'!D45-'AB CE'!E45)/ABS('AB CE'!D45)</f>
-        <v>8.2860131889180549E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>483.33300000000003</v>
@@ -48132,7 +48147,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="8">
-        <f>ABS('AB CE'!D46-'AB CE'!E46)/ABS('AB CE'!D46)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D46">
@@ -48151,7 +48166,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="8">
-        <f>ABS('AB CE'!D47-'AB CE'!E47)/ABS('AB CE'!D47)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D47">
@@ -48170,8 +48185,8 @@
         <v>1</v>
       </c>
       <c r="C48" s="8">
-        <f>ABS('AB CE'!D48-'AB CE'!E48)/ABS('AB CE'!D48)</f>
-        <v>0.21615155994546859</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>15.375</v>
@@ -48189,7 +48204,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="8">
-        <f>ABS('AB CE'!D49-'AB CE'!E49)/ABS('AB CE'!D49)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D49">
@@ -48208,7 +48223,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="8">
-        <f>ABS('AB CE'!D50-'AB CE'!E50)/ABS('AB CE'!D50)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D50">
@@ -48227,7 +48242,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="8">
-        <f>ABS('AB CE'!D51-'AB CE'!E51)/ABS('AB CE'!D51)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D51">
@@ -48246,7 +48261,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="8">
-        <f>ABS('AB CE'!D52-'AB CE'!E52)/ABS('AB CE'!D52)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D52">
@@ -48265,7 +48280,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="8">
-        <f>ABS('AB CE'!D53-'AB CE'!E53)/ABS('AB CE'!D53)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D53">
@@ -48284,7 +48299,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="8">
-        <f>ABS('AB CE'!D54-'AB CE'!E54)/ABS('AB CE'!D54)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D54">
@@ -48297,17 +48312,22 @@
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <conditionalFormatting sqref="B8:C54 B7">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="false">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH("false",B7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:C54">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="false">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH("false",B8)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C8:C54">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C7:C54">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="false">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH("false",C7)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/results/historical/OpenStudio_BESTEST_historical.xlsx
+++ b/results/historical/OpenStudio_BESTEST_historical.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dgoldwas/Documents/GitHub/NREL/BESTEST-GSR/results/historical/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BD8B7A-C018-A546-94E0-C0D0379EE155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12C7ED7-DCC7-6C4D-A530-3CC7F1AB2174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AB Envelope" sheetId="2" r:id="rId1"/>
@@ -6974,27 +6974,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -19937,17 +19917,17 @@
   </sheetData>
   <autoFilter ref="A1:E660" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="B1:C6 B661:C1048576">
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="false">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH("false",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B660">
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="false">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH("false",B7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C660">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="false">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH("false",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19963,7 +19943,7 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E1449" sqref="E1449"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20044,7 +20024,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>43573</v>
+        <v>43810</v>
       </c>
       <c r="E4" s="1">
         <v>43573</v>
@@ -47269,12 +47249,12 @@
   </sheetData>
   <autoFilter ref="A1:E1437" xr:uid="{3658DFBE-1F59-D443-8645-E2D1C3041DCA}"/>
   <conditionalFormatting sqref="B8:C1437 B7">
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="false">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH("false",B7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="false">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH("false",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48312,22 +48292,22 @@
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <conditionalFormatting sqref="B8:C54 B7">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="false">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH("false",B7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:C54">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="false">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH("false",B8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C54">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="false">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH("false",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C54">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="false">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH("false",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
